--- a/leetcode/题库.xlsx
+++ b/leetcode/题库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15480" activeTab="1"/>
+    <workbookView windowWidth="26331" windowHeight="11163" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Alibaba综合" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="455">
   <si>
     <t>题号</t>
   </si>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
       <t>836.</t>
     </r>
     <r>
@@ -539,6 +545,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
       <t>45.</t>
     </r>
     <r>
@@ -658,6 +670,25 @@
 2.使用 IFNULL((子查询),NULL) 非空返回查</t>
   </si>
   <si>
+    <t>SQL 交叉连接</t>
+  </si>
+  <si>
+    <t>DELETE p1 FROM Person p1,
+    Person p2
+WHERE
+    p1.Email = p2.Email AND p1.Id &gt; p2.Id
+# 子查询
+DELETE from Person 
+Where Id not in (
+    Select Id 
+    From(
+    Select MIN(Id) as id
+    From Person 
+    Group by Email
+   ) t
+)</t>
+  </si>
+  <si>
     <t>AddTwoNumbers</t>
   </si>
   <si>
@@ -694,6 +725,19 @@
 }</t>
   </si>
   <si>
+    <t>153. Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>比较 nums[mid] 和 nuns[right]
+nums[mid] &gt; nums[right] 数组左边有序 小 - 大</t>
+  </si>
+  <si>
+    <t>88. Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>要从后向前  归并排序的基本思路</t>
+  </si>
+  <si>
     <t xml:space="preserve">select IFNULL((SELECT DISTINCT Salary  FROM Employee ORDER BY Salary DESC LIMIT 1,1),null) as SecondHighestSalary        
 </t>
   </si>
@@ -721,6 +765,18 @@
   </si>
   <si>
     <t>int整数反转,%后/ 注意&lt; integer.max/10</t>
+  </si>
+  <si>
+    <t>268. Missing Number</t>
+  </si>
+  <si>
+    <t>位操作或者让所有数字回到正确的位置</t>
+  </si>
+  <si>
+    <t>448. Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>让所有数字回到正确的位置</t>
   </si>
   <si>
     <t>26. Remove Duplicates from Sorted Array</t>
@@ -757,6 +813,18 @@
 ORDER BY Department, Salary DESC</t>
   </si>
   <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>典型的双指针法,左边边小就left++,右边就right--</t>
+  </si>
+  <si>
+    <t>172. Factorial Trailing Zeroes</t>
+  </si>
+  <si>
+    <t>10来自2*58, 2足够 ,可以转化为求5的个数.</t>
+  </si>
+  <si>
     <t>ToLowerCase</t>
   </si>
   <si>
@@ -766,6 +834,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
       <t>41.</t>
     </r>
     <r>
@@ -884,6 +958,12 @@
     }</t>
   </si>
   <si>
+    <t>33. Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>还是观察出旋转数组的规律</t>
+  </si>
+  <si>
     <t>Remove Duplicates from Sorted List</t>
   </si>
   <si>
@@ -1507,10 +1587,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1564,91 +1644,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1671,14 +1666,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1693,15 +1713,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1752,13 +1832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,7 +1850,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,7 +1868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,7 +1892,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,133 +2012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,6 +2078,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2023,6 +2136,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2032,21 +2160,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2062,190 +2175,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2411,17 +2491,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2433,6 +2507,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2787,7 +2864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F140"/>
   <sheetViews>
@@ -2795,14 +2872,14 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="30.7596153846154" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7560975609756" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:6">
+    <row r="1" ht="15.15" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2822,7 +2899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:6">
+    <row r="2" ht="15.15" spans="1:6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2840,7 +2917,7 @@
       </c>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" ht="17.55" spans="1:6">
+    <row r="3" ht="15.15" spans="1:6">
       <c r="A3" s="8">
         <v>3</v>
       </c>
@@ -2858,7 +2935,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" ht="17.55" spans="1:6">
+    <row r="4" ht="15.15" spans="1:6">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -2876,7 +2953,7 @@
       </c>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" ht="17.55" spans="1:6">
+    <row r="5" ht="15.15" spans="1:6">
       <c r="A5" s="8">
         <v>206</v>
       </c>
@@ -2894,7 +2971,7 @@
       </c>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" ht="17.55" spans="1:6">
+    <row r="6" ht="15.15" spans="1:6">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -2912,7 +2989,7 @@
       </c>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" ht="17.55" spans="1:6">
+    <row r="7" ht="15.15" spans="1:6">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -2930,7 +3007,7 @@
       </c>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" ht="17.55" spans="1:6">
+    <row r="8" ht="15.15" spans="1:6">
       <c r="A8" s="8">
         <v>15</v>
       </c>
@@ -2948,7 +3025,7 @@
       </c>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" ht="17.55" spans="1:6">
+    <row r="9" ht="15.15" spans="1:6">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -2966,7 +3043,7 @@
       </c>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" ht="17.55" spans="1:6">
+    <row r="10" ht="15.15" spans="1:6">
       <c r="A10" s="8">
         <v>21</v>
       </c>
@@ -2984,7 +3061,7 @@
       </c>
       <c r="F10" s="24"/>
     </row>
-    <row r="11" ht="17.55" spans="1:6">
+    <row r="11" ht="15.15" spans="1:6">
       <c r="A11" s="8">
         <v>141</v>
       </c>
@@ -3002,7 +3079,7 @@
       </c>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" ht="17.55" spans="1:6">
+    <row r="12" ht="15.15" spans="1:6">
       <c r="A12" s="8">
         <v>20</v>
       </c>
@@ -3020,7 +3097,7 @@
       </c>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" ht="17.55" spans="1:6">
+    <row r="13" ht="15.15" spans="1:6">
       <c r="A13" s="8">
         <v>26</v>
       </c>
@@ -3038,7 +3115,7 @@
       </c>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" ht="17.55" spans="1:6">
+    <row r="14" ht="15.15" spans="1:6">
       <c r="A14" s="8">
         <v>53</v>
       </c>
@@ -3056,7 +3133,7 @@
       </c>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" ht="17.55" spans="1:6">
+    <row r="15" ht="15.15" spans="1:6">
       <c r="A15" s="8">
         <v>175</v>
       </c>
@@ -3074,7 +3151,7 @@
       </c>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" ht="17.55" spans="1:6">
+    <row r="16" ht="15.15" spans="1:6">
       <c r="A16" s="8">
         <v>70</v>
       </c>
@@ -3092,7 +3169,7 @@
       </c>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" ht="17.55" spans="1:6">
+    <row r="17" ht="15.15" spans="1:6">
       <c r="A17" s="8">
         <v>9</v>
       </c>
@@ -3110,7 +3187,7 @@
       </c>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" ht="17.55" spans="1:6">
+    <row r="18" ht="15.15" spans="1:6">
       <c r="A18" s="8">
         <v>146</v>
       </c>
@@ -3128,7 +3205,7 @@
       </c>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" ht="17.55" spans="1:6">
+    <row r="19" ht="15.15" spans="1:6">
       <c r="A19" s="8">
         <v>88</v>
       </c>
@@ -3146,7 +3223,7 @@
       </c>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" ht="17.55" spans="1:6">
+    <row r="20" ht="15.15" spans="1:6">
       <c r="A20" s="14">
         <v>11</v>
       </c>
@@ -3164,7 +3241,7 @@
       </c>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" ht="17.55" spans="1:6">
+    <row r="21" ht="15.15" spans="1:6">
       <c r="A21" s="8">
         <v>14</v>
       </c>
@@ -3182,7 +3259,7 @@
       </c>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" ht="17.55" spans="1:6">
+    <row r="22" ht="15.15" spans="1:6">
       <c r="A22" s="4">
         <v>45</v>
       </c>
@@ -3200,7 +3277,7 @@
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" ht="17.55" spans="1:6">
+    <row r="23" ht="15.15" spans="1:6">
       <c r="A23" s="8">
         <v>176</v>
       </c>
@@ -3218,7 +3295,7 @@
       </c>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" ht="17.55" spans="1:6">
+    <row r="24" ht="15.15" spans="1:6">
       <c r="A24" s="8">
         <v>10</v>
       </c>
@@ -3236,7 +3313,7 @@
       </c>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" ht="17.55" spans="1:6">
+    <row r="25" ht="15.15" spans="1:6">
       <c r="A25" s="8">
         <v>104</v>
       </c>
@@ -3254,7 +3331,7 @@
       </c>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" ht="17.55" spans="1:6">
+    <row r="26" ht="15.15" spans="1:6">
       <c r="A26" s="8">
         <v>8</v>
       </c>
@@ -3272,7 +3349,7 @@
       </c>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" ht="17.55" spans="1:6">
+    <row r="27" ht="15.15" spans="1:6">
       <c r="A27" s="8">
         <v>19</v>
       </c>
@@ -3290,7 +3367,7 @@
       </c>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" ht="17.55" spans="1:6">
+    <row r="28" ht="15.15" spans="1:6">
       <c r="A28" s="8">
         <v>22</v>
       </c>
@@ -3308,7 +3385,7 @@
       </c>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" ht="17.55" spans="1:6">
+    <row r="29" ht="15.15" spans="1:6">
       <c r="A29" s="8">
         <v>25</v>
       </c>
@@ -3326,7 +3403,7 @@
       </c>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" ht="17.55" spans="1:6">
+    <row r="30" ht="15.15" spans="1:6">
       <c r="A30" s="8">
         <v>46</v>
       </c>
@@ -3344,7 +3421,7 @@
       </c>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" ht="17.55" spans="1:6">
+    <row r="31" ht="15.15" spans="1:6">
       <c r="A31" s="8">
         <v>226</v>
       </c>
@@ -3362,7 +3439,7 @@
       </c>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" ht="17.55" spans="1:6">
+    <row r="32" ht="15.15" spans="1:6">
       <c r="A32" s="8">
         <v>55</v>
       </c>
@@ -3380,7 +3457,7 @@
       </c>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" ht="17.55" spans="1:6">
+    <row r="33" ht="15.15" spans="1:6">
       <c r="A33" s="8">
         <v>64</v>
       </c>
@@ -3398,7 +3475,7 @@
       </c>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" ht="17.55" spans="1:6">
+    <row r="34" ht="15.15" spans="1:6">
       <c r="A34" s="8">
         <v>160</v>
       </c>
@@ -3416,7 +3493,7 @@
       </c>
       <c r="F34" s="24"/>
     </row>
-    <row r="35" ht="17.55" spans="1:6">
+    <row r="35" ht="15.15" spans="1:6">
       <c r="A35" s="8">
         <v>13</v>
       </c>
@@ -3434,7 +3511,7 @@
       </c>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" ht="17.55" spans="1:6">
+    <row r="36" ht="15.15" spans="1:6">
       <c r="A36" s="8">
         <v>17</v>
       </c>
@@ -3452,7 +3529,7 @@
       </c>
       <c r="F36" s="23"/>
     </row>
-    <row r="37" ht="17.55" spans="1:6">
+    <row r="37" ht="15.15" spans="1:6">
       <c r="A37" s="8">
         <v>695</v>
       </c>
@@ -3470,7 +3547,7 @@
       </c>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" ht="17.55" spans="1:6">
+    <row r="38" ht="15.15" spans="1:6">
       <c r="A38" s="8">
         <v>177</v>
       </c>
@@ -3488,7 +3565,7 @@
       </c>
       <c r="F38" s="23"/>
     </row>
-    <row r="39" ht="17.55" spans="1:6">
+    <row r="39" ht="15.15" spans="1:6">
       <c r="A39" s="14">
         <v>200</v>
       </c>
@@ -3506,7 +3583,7 @@
       </c>
       <c r="F39" s="23"/>
     </row>
-    <row r="40" ht="17.55" spans="1:6">
+    <row r="40" ht="15.15" spans="1:6">
       <c r="A40" s="8">
         <v>322</v>
       </c>
@@ -3524,7 +3601,7 @@
       </c>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" ht="17.55" spans="1:6">
+    <row r="41" ht="15.15" spans="1:6">
       <c r="A41" s="8">
         <v>56</v>
       </c>
@@ -3542,7 +3619,7 @@
       </c>
       <c r="F41" s="23"/>
     </row>
-    <row r="42" ht="17.55" spans="1:6">
+    <row r="42" ht="15.15" spans="1:6">
       <c r="A42" s="4">
         <v>57</v>
       </c>
@@ -3560,7 +3637,7 @@
       </c>
       <c r="F42" s="23"/>
     </row>
-    <row r="43" ht="17.55" spans="1:6">
+    <row r="43" ht="15.15" spans="1:6">
       <c r="A43" s="8">
         <v>63</v>
       </c>
@@ -3578,7 +3655,7 @@
       </c>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" ht="17.55" spans="1:6">
+    <row r="44" ht="15.15" spans="1:6">
       <c r="A44" s="8">
         <v>344</v>
       </c>
@@ -3596,7 +3673,7 @@
       </c>
       <c r="F44" s="23"/>
     </row>
-    <row r="45" ht="17.55" spans="1:6">
+    <row r="45" ht="15.15" spans="1:6">
       <c r="A45" s="8">
         <v>39</v>
       </c>
@@ -3614,7 +3691,7 @@
       </c>
       <c r="F45" s="23"/>
     </row>
-    <row r="46" ht="17.55" spans="1:6">
+    <row r="46" ht="15.15" spans="1:6">
       <c r="A46" s="8">
         <v>122</v>
       </c>
@@ -3632,7 +3709,7 @@
       </c>
       <c r="F46" s="23"/>
     </row>
-    <row r="47" ht="17.55" spans="1:6">
+    <row r="47" ht="15.15" spans="1:6">
       <c r="A47" s="8">
         <v>136</v>
       </c>
@@ -3650,7 +3727,7 @@
       </c>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" ht="17.55" spans="1:6">
+    <row r="48" ht="15.15" spans="1:6">
       <c r="A48" s="8">
         <v>196</v>
       </c>
@@ -3668,7 +3745,7 @@
       </c>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" ht="17.55" spans="1:6">
+    <row r="49" ht="15.15" spans="1:6">
       <c r="A49" s="8">
         <v>24</v>
       </c>
@@ -3686,7 +3763,7 @@
       </c>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" ht="17.55" spans="1:6">
+    <row r="50" ht="15.15" spans="1:6">
       <c r="A50" s="8">
         <v>12</v>
       </c>
@@ -3704,7 +3781,7 @@
       </c>
       <c r="F50" s="23"/>
     </row>
-    <row r="51" ht="17.55" spans="1:6">
+    <row r="51" ht="15.15" spans="1:6">
       <c r="A51" s="8">
         <v>23</v>
       </c>
@@ -3722,7 +3799,7 @@
       </c>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" ht="17.55" spans="1:6">
+    <row r="52" ht="15.15" spans="1:6">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -3740,7 +3817,7 @@
       </c>
       <c r="F52" s="23"/>
     </row>
-    <row r="53" ht="17.55" spans="1:6">
+    <row r="53" ht="15.15" spans="1:6">
       <c r="A53" s="8">
         <v>79</v>
       </c>
@@ -3758,7 +3835,7 @@
       </c>
       <c r="F53" s="23"/>
     </row>
-    <row r="54" ht="17.55" spans="1:6">
+    <row r="54" ht="15.15" spans="1:6">
       <c r="A54" s="8">
         <v>98</v>
       </c>
@@ -3776,7 +3853,7 @@
       </c>
       <c r="F54" s="23"/>
     </row>
-    <row r="55" ht="17.55" spans="1:6">
+    <row r="55" ht="15.15" spans="1:6">
       <c r="A55" s="8">
         <v>153</v>
       </c>
@@ -3794,7 +3871,7 @@
       </c>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" ht="17.55" spans="1:6">
+    <row r="56" ht="15.15" spans="1:6">
       <c r="A56" s="8">
         <v>167</v>
       </c>
@@ -3812,7 +3889,7 @@
       </c>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" ht="17.55" spans="1:6">
+    <row r="57" ht="15.15" spans="1:6">
       <c r="A57" s="8">
         <v>178</v>
       </c>
@@ -3830,7 +3907,7 @@
       </c>
       <c r="F57" s="23"/>
     </row>
-    <row r="58" ht="17.55" spans="1:6">
+    <row r="58" ht="15.15" spans="1:6">
       <c r="A58" s="8">
         <v>300</v>
       </c>
@@ -3848,7 +3925,7 @@
       </c>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" ht="17.55" spans="1:6">
+    <row r="59" ht="15.15" spans="1:6">
       <c r="A59" s="8">
         <v>692</v>
       </c>
@@ -3866,7 +3943,7 @@
       </c>
       <c r="F59" s="23"/>
     </row>
-    <row r="60" ht="17.55" spans="1:6">
+    <row r="60" ht="15.15" spans="1:6">
       <c r="A60" s="8">
         <v>28</v>
       </c>
@@ -3884,7 +3961,7 @@
       </c>
       <c r="F60" s="23"/>
     </row>
-    <row r="61" ht="17.55" spans="1:6">
+    <row r="61" ht="15.15" spans="1:6">
       <c r="A61" s="14">
         <v>32</v>
       </c>
@@ -3902,7 +3979,7 @@
       </c>
       <c r="F61" s="23"/>
     </row>
-    <row r="62" ht="17.55" spans="1:6">
+    <row r="62" ht="15.15" spans="1:6">
       <c r="A62" s="4">
         <v>38</v>
       </c>
@@ -3920,7 +3997,7 @@
       </c>
       <c r="F62" s="23"/>
     </row>
-    <row r="63" ht="17.55" spans="1:6">
+    <row r="63" ht="15.15" spans="1:6">
       <c r="A63" s="8">
         <v>51</v>
       </c>
@@ -3938,7 +4015,7 @@
       </c>
       <c r="F63" s="23"/>
     </row>
-    <row r="64" ht="17.55" spans="1:6">
+    <row r="64" ht="15.15" spans="1:6">
       <c r="A64" s="8">
         <v>54</v>
       </c>
@@ -3956,7 +4033,7 @@
       </c>
       <c r="F64" s="23"/>
     </row>
-    <row r="65" ht="17.55" spans="1:6">
+    <row r="65" ht="15.15" spans="1:6">
       <c r="A65" s="8">
         <v>69</v>
       </c>
@@ -3974,7 +4051,7 @@
       </c>
       <c r="F65" s="23"/>
     </row>
-    <row r="66" ht="17.55" spans="1:6">
+    <row r="66" ht="15.15" spans="1:6">
       <c r="A66" s="8">
         <v>75</v>
       </c>
@@ -3992,7 +4069,7 @@
       </c>
       <c r="F66" s="23"/>
     </row>
-    <row r="67" ht="17.55" spans="1:6">
+    <row r="67" ht="15.15" spans="1:6">
       <c r="A67" s="8">
         <v>102</v>
       </c>
@@ -4010,7 +4087,7 @@
       </c>
       <c r="F67" s="23"/>
     </row>
-    <row r="68" ht="17.55" spans="1:6">
+    <row r="68" ht="15.15" spans="1:6">
       <c r="A68" s="8">
         <v>111</v>
       </c>
@@ -4028,7 +4105,7 @@
       </c>
       <c r="F68" s="23"/>
     </row>
-    <row r="69" ht="17.55" spans="1:6">
+    <row r="69" ht="15.15" spans="1:6">
       <c r="A69" s="8">
         <v>123</v>
       </c>
@@ -4046,7 +4123,7 @@
       </c>
       <c r="F69" s="23"/>
     </row>
-    <row r="70" ht="17.55" spans="1:6">
+    <row r="70" ht="15.15" spans="1:6">
       <c r="A70" s="14">
         <v>127</v>
       </c>
@@ -4064,7 +4141,7 @@
       </c>
       <c r="F70" s="23"/>
     </row>
-    <row r="71" ht="17.55" spans="1:6">
+    <row r="71" ht="15.15" spans="1:6">
       <c r="A71" s="8">
         <v>128</v>
       </c>
@@ -4082,7 +4159,7 @@
       </c>
       <c r="F71" s="23"/>
     </row>
-    <row r="72" ht="17.55" spans="1:6">
+    <row r="72" ht="15.15" spans="1:6">
       <c r="A72" s="8">
         <v>135</v>
       </c>
@@ -4100,7 +4177,7 @@
       </c>
       <c r="F72" s="23"/>
     </row>
-    <row r="73" ht="17.55" spans="1:6">
+    <row r="73" ht="15.15" spans="1:6">
       <c r="A73" s="8">
         <v>139</v>
       </c>
@@ -4118,7 +4195,7 @@
       </c>
       <c r="F73" s="23"/>
     </row>
-    <row r="74" ht="17.55" spans="1:6">
+    <row r="74" ht="15.15" spans="1:6">
       <c r="A74" s="8">
         <v>142</v>
       </c>
@@ -4136,7 +4213,7 @@
       </c>
       <c r="F74" s="23"/>
     </row>
-    <row r="75" ht="17.55" spans="1:6">
+    <row r="75" ht="15.15" spans="1:6">
       <c r="A75" s="8">
         <v>173</v>
       </c>
@@ -4154,7 +4231,7 @@
       </c>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" ht="17.55" spans="1:6">
+    <row r="76" ht="15.15" spans="1:6">
       <c r="A76" s="8">
         <v>215</v>
       </c>
@@ -4172,7 +4249,7 @@
       </c>
       <c r="F76" s="23"/>
     </row>
-    <row r="77" ht="17.55" spans="1:6">
+    <row r="77" ht="15.15" spans="1:6">
       <c r="A77" s="8">
         <v>234</v>
       </c>
@@ -4190,7 +4267,7 @@
       </c>
       <c r="F77" s="23"/>
     </row>
-    <row r="78" ht="17.55" spans="1:6">
+    <row r="78" ht="15.15" spans="1:6">
       <c r="A78" s="8">
         <v>268</v>
       </c>
@@ -4208,7 +4285,7 @@
       </c>
       <c r="F78" s="23"/>
     </row>
-    <row r="79" ht="17.55" spans="1:6">
+    <row r="79" ht="15.15" spans="1:6">
       <c r="A79" s="8">
         <v>278</v>
       </c>
@@ -4226,7 +4303,7 @@
       </c>
       <c r="F79" s="23"/>
     </row>
-    <row r="80" ht="17.55" spans="1:6">
+    <row r="80" ht="15.15" spans="1:6">
       <c r="A80" s="8">
         <v>415</v>
       </c>
@@ -4244,7 +4321,7 @@
       </c>
       <c r="F80" s="23"/>
     </row>
-    <row r="81" ht="17.55" spans="1:6">
+    <row r="81" ht="15.15" spans="1:6">
       <c r="A81" s="8">
         <v>601</v>
       </c>
@@ -4262,7 +4339,7 @@
       </c>
       <c r="F81" s="23"/>
     </row>
-    <row r="82" ht="17.55" spans="1:6">
+    <row r="82" ht="15.15" spans="1:6">
       <c r="A82" s="8">
         <v>124</v>
       </c>
@@ -4280,7 +4357,7 @@
       </c>
       <c r="F82" s="23"/>
     </row>
-    <row r="83" ht="17.55" spans="1:6">
+    <row r="83" ht="15.15" spans="1:6">
       <c r="A83" s="8">
         <v>169</v>
       </c>
@@ -4298,7 +4375,7 @@
       </c>
       <c r="F83" s="23"/>
     </row>
-    <row r="84" ht="17.55" spans="1:6">
+    <row r="84" ht="15.15" spans="1:6">
       <c r="A84" s="8">
         <v>93</v>
       </c>
@@ -4316,7 +4393,7 @@
       </c>
       <c r="F84" s="23"/>
     </row>
-    <row r="85" ht="17.55" spans="1:6">
+    <row r="85" ht="15.15" spans="1:6">
       <c r="A85" s="8">
         <v>33</v>
       </c>
@@ -4334,7 +4411,7 @@
       </c>
       <c r="F85" s="23"/>
     </row>
-    <row r="86" ht="17.55" spans="1:6">
+    <row r="86" ht="15.15" spans="1:6">
       <c r="A86" s="8">
         <v>40</v>
       </c>
@@ -4352,7 +4429,7 @@
       </c>
       <c r="F86" s="23"/>
     </row>
-    <row r="87" ht="17.55" spans="1:6">
+    <row r="87" ht="15.15" spans="1:6">
       <c r="A87" s="8">
         <v>41</v>
       </c>
@@ -4370,7 +4447,7 @@
       </c>
       <c r="F87" s="23"/>
     </row>
-    <row r="88" ht="17.55" spans="1:6">
+    <row r="88" ht="15.15" spans="1:6">
       <c r="A88" s="8">
         <v>65</v>
       </c>
@@ -4388,7 +4465,7 @@
       </c>
       <c r="F88" s="23"/>
     </row>
-    <row r="89" ht="17.55" spans="1:6">
+    <row r="89" ht="15.15" spans="1:6">
       <c r="A89" s="8">
         <v>72</v>
       </c>
@@ -4406,7 +4483,7 @@
       </c>
       <c r="F89" s="23"/>
     </row>
-    <row r="90" ht="17.55" spans="1:6">
+    <row r="90" ht="15.15" spans="1:6">
       <c r="A90" s="8">
         <v>85</v>
       </c>
@@ -4424,7 +4501,7 @@
       </c>
       <c r="F90" s="23"/>
     </row>
-    <row r="91" ht="17.55" spans="1:6">
+    <row r="91" ht="15.15" spans="1:6">
       <c r="A91" s="8">
         <v>101</v>
       </c>
@@ -4442,7 +4519,7 @@
       </c>
       <c r="F91" s="23"/>
     </row>
-    <row r="92" ht="17.55" spans="1:6">
+    <row r="92" ht="15.15" spans="1:6">
       <c r="A92" s="8">
         <v>145</v>
       </c>
@@ -4460,7 +4537,7 @@
       </c>
       <c r="F92" s="23"/>
     </row>
-    <row r="93" ht="17.55" spans="1:6">
+    <row r="93" ht="15.15" spans="1:6">
       <c r="A93" s="8">
         <v>172</v>
       </c>
@@ -4478,7 +4555,7 @@
       </c>
       <c r="F93" s="23"/>
     </row>
-    <row r="94" ht="17.55" spans="1:6">
+    <row r="94" ht="15.15" spans="1:6">
       <c r="A94" s="8">
         <v>198</v>
       </c>
@@ -4496,7 +4573,7 @@
       </c>
       <c r="F94" s="23"/>
     </row>
-    <row r="95" ht="17.55" spans="1:6">
+    <row r="95" ht="15.15" spans="1:6">
       <c r="A95" s="8">
         <v>217</v>
       </c>
@@ -4514,7 +4591,7 @@
       </c>
       <c r="F95" s="23"/>
     </row>
-    <row r="96" ht="17.55" spans="1:6">
+    <row r="96" ht="15.15" spans="1:6">
       <c r="A96" s="8">
         <v>232</v>
       </c>
@@ -4532,7 +4609,7 @@
       </c>
       <c r="F96" s="23"/>
     </row>
-    <row r="97" ht="17.55" spans="1:6">
+    <row r="97" ht="15.15" spans="1:6">
       <c r="A97" s="8">
         <v>349</v>
       </c>
@@ -4550,7 +4627,7 @@
       </c>
       <c r="F97" s="23"/>
     </row>
-    <row r="98" ht="17.55" spans="1:6">
+    <row r="98" ht="15.15" spans="1:6">
       <c r="A98" s="8">
         <v>387</v>
       </c>
@@ -4568,7 +4645,7 @@
       </c>
       <c r="F98" s="23"/>
     </row>
-    <row r="99" ht="17.55" spans="1:6">
+    <row r="99" ht="15.15" spans="1:6">
       <c r="A99" s="8">
         <v>394</v>
       </c>
@@ -4586,7 +4663,7 @@
       </c>
       <c r="F99" s="23"/>
     </row>
-    <row r="100" ht="17.55" spans="1:6">
+    <row r="100" ht="15.15" spans="1:6">
       <c r="A100" s="14">
         <v>413</v>
       </c>
@@ -4604,7 +4681,7 @@
       </c>
       <c r="F100" s="23"/>
     </row>
-    <row r="101" ht="17.55" spans="1:6">
+    <row r="101" ht="15.15" spans="1:6">
       <c r="A101" s="8">
         <v>448</v>
       </c>
@@ -4622,7 +4699,7 @@
       </c>
       <c r="F101" s="23"/>
     </row>
-    <row r="102" ht="17.55" spans="1:6">
+    <row r="102" ht="15.15" spans="1:6">
       <c r="A102" s="8">
         <v>543</v>
       </c>
@@ -4640,7 +4717,7 @@
       </c>
       <c r="F102" s="23"/>
     </row>
-    <row r="103" ht="17.55" spans="1:6">
+    <row r="103" ht="15.15" spans="1:6">
       <c r="A103" s="8">
         <v>16</v>
       </c>
@@ -4658,7 +4735,7 @@
       </c>
       <c r="F103" s="23"/>
     </row>
-    <row r="104" ht="17.55" spans="1:6">
+    <row r="104" ht="15.15" spans="1:6">
       <c r="A104" s="8">
         <v>18</v>
       </c>
@@ -4676,7 +4753,7 @@
       </c>
       <c r="F104" s="23"/>
     </row>
-    <row r="105" ht="17.55" spans="1:6">
+    <row r="105" ht="15.15" spans="1:6">
       <c r="A105" s="8">
         <v>29</v>
       </c>
@@ -4694,7 +4771,7 @@
       </c>
       <c r="F105" s="23"/>
     </row>
-    <row r="106" ht="17.55" spans="1:6">
+    <row r="106" ht="15.15" spans="1:6">
       <c r="A106" s="8">
         <v>36</v>
       </c>
@@ -4712,7 +4789,7 @@
       </c>
       <c r="F106" s="23"/>
     </row>
-    <row r="107" ht="17.55" spans="1:6">
+    <row r="107" ht="15.15" spans="1:6">
       <c r="A107" s="8">
         <v>66</v>
       </c>
@@ -4730,7 +4807,7 @@
       </c>
       <c r="F107" s="23"/>
     </row>
-    <row r="108" ht="17.55" spans="1:6">
+    <row r="108" ht="15.15" spans="1:6">
       <c r="A108" s="8">
         <v>67</v>
       </c>
@@ -4748,7 +4825,7 @@
       </c>
       <c r="F108" s="23"/>
     </row>
-    <row r="109" ht="17.55" spans="1:6">
+    <row r="109" ht="15.15" spans="1:6">
       <c r="A109" s="14">
         <v>92</v>
       </c>
@@ -4766,7 +4843,7 @@
       </c>
       <c r="F109" s="23"/>
     </row>
-    <row r="110" ht="17.55" spans="1:6">
+    <row r="110" ht="15.15" spans="1:6">
       <c r="A110" s="8">
         <v>106</v>
       </c>
@@ -4784,7 +4861,7 @@
       </c>
       <c r="F110" s="23"/>
     </row>
-    <row r="111" ht="17.55" spans="1:6">
+    <row r="111" ht="15.15" spans="1:6">
       <c r="A111" s="8">
         <v>113</v>
       </c>
@@ -4802,7 +4879,7 @@
       </c>
       <c r="F111" s="23"/>
     </row>
-    <row r="112" ht="17.55" spans="1:6">
+    <row r="112" ht="15.15" spans="1:6">
       <c r="A112" s="8">
         <v>120</v>
       </c>
@@ -4820,7 +4897,7 @@
       </c>
       <c r="F112" s="23"/>
     </row>
-    <row r="113" ht="17.55" spans="1:6">
+    <row r="113" ht="15.15" spans="1:6">
       <c r="A113" s="8">
         <v>131</v>
       </c>
@@ -4838,7 +4915,7 @@
       </c>
       <c r="F113" s="23"/>
     </row>
-    <row r="114" ht="17.55" spans="1:6">
+    <row r="114" ht="15.15" spans="1:6">
       <c r="A114" s="8">
         <v>147</v>
       </c>
@@ -4856,7 +4933,7 @@
       </c>
       <c r="F114" s="23"/>
     </row>
-    <row r="115" ht="17.55" spans="1:6">
+    <row r="115" ht="15.15" spans="1:6">
       <c r="A115" s="8">
         <v>162</v>
       </c>
@@ -4874,7 +4951,7 @@
       </c>
       <c r="F115" s="23"/>
     </row>
-    <row r="116" ht="17.55" spans="1:6">
+    <row r="116" ht="15.15" spans="1:6">
       <c r="A116" s="8">
         <v>184</v>
       </c>
@@ -4892,7 +4969,7 @@
       </c>
       <c r="F116" s="23"/>
     </row>
-    <row r="117" ht="17.55" spans="1:6">
+    <row r="117" ht="15.15" spans="1:6">
       <c r="A117" s="8">
         <v>187</v>
       </c>
@@ -4910,7 +4987,7 @@
       </c>
       <c r="F117" s="23"/>
     </row>
-    <row r="118" ht="17.55" spans="1:6">
+    <row r="118" ht="15.15" spans="1:6">
       <c r="A118" s="8">
         <v>192</v>
       </c>
@@ -4928,7 +5005,7 @@
       </c>
       <c r="F118" s="23"/>
     </row>
-    <row r="119" ht="17.55" spans="1:6">
+    <row r="119" ht="15.15" spans="1:6">
       <c r="A119" s="8">
         <v>240</v>
       </c>
@@ -4946,7 +5023,7 @@
       </c>
       <c r="F119" s="23"/>
     </row>
-    <row r="120" ht="17.55" spans="1:6">
+    <row r="120" ht="15.15" spans="1:6">
       <c r="A120" s="8">
         <v>287</v>
       </c>
@@ -4964,7 +5041,7 @@
       </c>
       <c r="F120" s="23"/>
     </row>
-    <row r="121" ht="17.55" spans="1:6">
+    <row r="121" ht="15.15" spans="1:6">
       <c r="A121" s="8">
         <v>409</v>
       </c>
@@ -4982,7 +5059,7 @@
       </c>
       <c r="F121" s="23"/>
     </row>
-    <row r="122" ht="17.55" spans="1:6">
+    <row r="122" ht="15.15" spans="1:6">
       <c r="A122" s="4">
         <v>442</v>
       </c>
@@ -5000,7 +5077,7 @@
       </c>
       <c r="F122" s="23"/>
     </row>
-    <row r="123" ht="17.55" spans="1:6">
+    <row r="123" ht="15.15" spans="1:6">
       <c r="A123" s="8">
         <v>455</v>
       </c>
@@ -5018,7 +5095,7 @@
       </c>
       <c r="F123" s="23"/>
     </row>
-    <row r="124" ht="17.55" spans="1:6">
+    <row r="124" ht="15.15" spans="1:6">
       <c r="A124" s="8">
         <v>535</v>
       </c>
@@ -5036,7 +5113,7 @@
       </c>
       <c r="F124" s="23"/>
     </row>
-    <row r="125" ht="17.55" spans="1:6">
+    <row r="125" ht="15.15" spans="1:6">
       <c r="A125" s="8">
         <v>688</v>
       </c>
@@ -5054,7 +5131,7 @@
       </c>
       <c r="F125" s="23"/>
     </row>
-    <row r="126" ht="17.55" spans="1:6">
+    <row r="126" ht="15.15" spans="1:6">
       <c r="A126" s="8">
         <v>836</v>
       </c>
@@ -5072,7 +5149,7 @@
       </c>
       <c r="F126" s="23"/>
     </row>
-    <row r="127" ht="17.55" spans="1:6">
+    <row r="127" ht="15.15" spans="1:6">
       <c r="A127" s="8">
         <v>107</v>
       </c>
@@ -5090,7 +5167,7 @@
       </c>
       <c r="F127" s="23"/>
     </row>
-    <row r="128" ht="17.55" spans="1:6">
+    <row r="128" ht="15.15" spans="1:6">
       <c r="A128" s="8">
         <v>237</v>
       </c>
@@ -5108,7 +5185,7 @@
       </c>
       <c r="F128" s="23"/>
     </row>
-    <row r="129" ht="17.55" spans="1:6">
+    <row r="129" ht="15.15" spans="1:6">
       <c r="A129" s="8">
         <v>258</v>
       </c>
@@ -5126,7 +5203,7 @@
       </c>
       <c r="F129" s="23"/>
     </row>
-    <row r="130" ht="17.55" spans="1:6">
+    <row r="130" ht="15.15" spans="1:6">
       <c r="A130" s="8">
         <v>42</v>
       </c>
@@ -5144,7 +5221,7 @@
       </c>
       <c r="F130" s="23"/>
     </row>
-    <row r="131" ht="17.55" spans="1:6">
+    <row r="131" ht="15.15" spans="1:6">
       <c r="A131" s="8">
         <v>130</v>
       </c>
@@ -5162,7 +5239,7 @@
       </c>
       <c r="F131" s="23"/>
     </row>
-    <row r="132" ht="17.55" spans="1:6">
+    <row r="132" ht="15.15" spans="1:6">
       <c r="A132" s="8">
         <v>137</v>
       </c>
@@ -5180,7 +5257,7 @@
       </c>
       <c r="F132" s="23"/>
     </row>
-    <row r="133" ht="17.55" spans="1:6">
+    <row r="133" ht="15.15" spans="1:6">
       <c r="A133" s="8">
         <v>144</v>
       </c>
@@ -5198,7 +5275,7 @@
       </c>
       <c r="F133" s="23"/>
     </row>
-    <row r="134" ht="17.55" spans="1:6">
+    <row r="134" ht="15.15" spans="1:6">
       <c r="A134" s="8">
         <v>121</v>
       </c>
@@ -5216,7 +5293,7 @@
       </c>
       <c r="F134" s="23"/>
     </row>
-    <row r="135" ht="17.55" spans="1:6">
+    <row r="135" ht="15.15" spans="1:6">
       <c r="A135" s="8">
         <v>83</v>
       </c>
@@ -5234,7 +5311,7 @@
       </c>
       <c r="F135" s="23"/>
     </row>
-    <row r="136" ht="17.55" spans="1:6">
+    <row r="136" ht="15.15" spans="1:6">
       <c r="A136" s="8">
         <v>31</v>
       </c>
@@ -5252,7 +5329,7 @@
       </c>
       <c r="F136" s="23"/>
     </row>
-    <row r="137" ht="17.55" spans="1:6">
+    <row r="137" ht="15.15" spans="1:6">
       <c r="A137" s="8">
         <v>1116</v>
       </c>
@@ -5270,7 +5347,7 @@
       </c>
       <c r="F137" s="23"/>
     </row>
-    <row r="138" ht="17.55" spans="1:6">
+    <row r="138" ht="15.15" spans="1:6">
       <c r="A138" s="8">
         <v>1114</v>
       </c>
@@ -5288,7 +5365,7 @@
       </c>
       <c r="F138" s="23"/>
     </row>
-    <row r="139" ht="17.55" spans="1:6">
+    <row r="139" ht="15.15" spans="1:6">
       <c r="A139" s="14">
         <v>709</v>
       </c>
@@ -5306,7 +5383,7 @@
       </c>
       <c r="F139" s="23"/>
     </row>
-    <row r="140" ht="17.55" spans="1:6">
+    <row r="140" ht="15.15" spans="1:6">
       <c r="A140" s="8">
         <v>242</v>
       </c>
@@ -5473,30 +5550,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="38.9423076923077" style="1" customWidth="1"/>
-    <col min="3" max="3" width="62.0192307692308" style="1" customWidth="1"/>
-    <col min="4" max="4" width="89.8942307692308" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.89423076923077" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.45192307692308" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.9430894308943" style="1" customWidth="1"/>
+    <col min="3" max="3" width="62.0162601626016" style="1" customWidth="1"/>
+    <col min="4" max="4" width="89.8943089430894" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.89430894308943" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.45528455284553" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="50.3173076923077" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.3170731707317" style="1" customWidth="1"/>
     <col min="9" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="40.6826923076923" style="1" customWidth="1"/>
+    <col min="15" max="15" width="40.6829268292683" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:11">
+    <row r="1" ht="15.15" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5518,22 +5595,22 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="59" t="s">
         <v>154</v>
       </c>
       <c r="K1" s="1">
         <f>COUNTA(C2:C200)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" ht="17.55" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:7">
       <c r="A2" s="4">
         <v>688</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="6">
         <v>0.418</v>
       </c>
@@ -5543,7 +5620,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" ht="17.55" spans="1:7">
+    <row r="3" ht="15.15" spans="1:7">
       <c r="A3" s="8">
         <v>692</v>
       </c>
@@ -5562,14 +5639,14 @@
       <c r="F3" s="23"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" ht="18.75" spans="1:7">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="8">
         <v>836</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="9" t="s">
         <v>157</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -5581,7 +5658,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" ht="17.55" spans="1:7">
+    <row r="5" ht="15.15" spans="1:7">
       <c r="A5" s="8">
         <v>535</v>
       </c>
@@ -5600,7 +5677,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" ht="17.55" spans="1:7">
+    <row r="6" ht="15.15" spans="1:7">
       <c r="A6" s="8">
         <v>695</v>
       </c>
@@ -5617,7 +5694,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" ht="17.55" spans="1:7">
+    <row r="7" ht="15.15" spans="1:7">
       <c r="A7" s="8">
         <v>601</v>
       </c>
@@ -5634,7 +5711,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" ht="15.15" spans="1:7">
       <c r="A8" s="8">
         <v>146</v>
       </c>
@@ -5651,7 +5728,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" ht="141.75" spans="1:7">
+    <row r="9" ht="130.35" spans="1:7">
       <c r="A9" s="8">
         <v>1</v>
       </c>
@@ -5661,7 +5738,7 @@
       <c r="C9" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>162</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -5670,7 +5747,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" ht="17.55" spans="1:7">
+    <row r="10" ht="15.15" spans="1:7">
       <c r="A10" s="8">
         <v>57</v>
       </c>
@@ -5687,14 +5764,14 @@
       <c r="F10" s="23"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" ht="18.75" spans="1:7">
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="8">
         <v>45</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -5706,7 +5783,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" ht="17.55" spans="1:7">
+    <row r="12" ht="15.15" spans="1:7">
       <c r="A12" s="8">
         <v>187</v>
       </c>
@@ -5723,7 +5800,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" ht="17.55" spans="1:7">
+    <row r="13" ht="15.15" spans="1:7">
       <c r="A13" s="8">
         <v>135</v>
       </c>
@@ -5740,11 +5817,11 @@
       <c r="F13" s="23"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" ht="17.55" spans="1:7">
+    <row r="14" ht="15.15" spans="1:7">
       <c r="A14" s="8">
         <v>413</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -5759,14 +5836,14 @@
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" ht="18.75" spans="1:8">
+    <row r="15" ht="15.15" spans="1:8">
       <c r="A15" s="8">
         <v>192</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="9" t="s">
         <v>167</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -5781,7 +5858,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" ht="17.55" spans="1:7">
+    <row r="16" ht="15.15" spans="1:7">
       <c r="A16" s="8">
         <v>65</v>
       </c>
@@ -5798,7 +5875,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" ht="47.75" spans="1:7">
+    <row r="17" ht="43.95" spans="1:7">
       <c r="A17" s="8">
         <v>173</v>
       </c>
@@ -5808,7 +5885,7 @@
       <c r="C17" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>171</v>
       </c>
       <c r="E17" s="12" t="s">
@@ -5817,7 +5894,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" ht="15.15" spans="1:7">
       <c r="A18" s="8">
         <v>442</v>
       </c>
@@ -5836,14 +5913,14 @@
       <c r="F18" s="23"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" ht="17.55" spans="1:7">
+    <row r="19" ht="15.15" spans="1:7">
       <c r="A19" s="14">
         <v>206</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="9" t="s">
         <v>174</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -5855,7 +5932,7 @@
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20" ht="17.55" spans="1:7">
+    <row r="20" ht="15.15" spans="1:7">
       <c r="A20" s="8">
         <v>4</v>
       </c>
@@ -5872,7 +5949,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" ht="17.55" spans="1:7">
+    <row r="21" ht="15.15" spans="1:7">
       <c r="A21" s="8">
         <v>25</v>
       </c>
@@ -5889,14 +5966,14 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
     </row>
-    <row r="22" ht="17.55" spans="1:6">
+    <row r="22" ht="15.15" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>177</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -5907,7 +5984,7 @@
       </c>
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" ht="15.15" spans="1:6">
       <c r="A23" s="8">
         <v>127</v>
       </c>
@@ -5925,7 +6002,7 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" ht="15.15" spans="1:7">
       <c r="A24" s="8">
         <v>3</v>
       </c>
@@ -5942,7 +6019,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" ht="17.55" spans="1:7">
+    <row r="25" ht="15.15" spans="1:7">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -5959,7 +6036,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" ht="47.75" spans="1:7">
+    <row r="26" ht="43.95" spans="1:7">
       <c r="A26" s="8">
         <v>15</v>
       </c>
@@ -5969,7 +6046,7 @@
       <c r="C26" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="55" t="s">
         <v>181</v>
       </c>
       <c r="E26" s="12" t="s">
@@ -5978,7 +6055,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" ht="15.15" spans="1:7">
       <c r="A27" s="8">
         <v>93</v>
       </c>
@@ -5997,7 +6074,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" ht="172.75" spans="1:7">
+    <row r="28" ht="159.15" spans="1:7">
       <c r="A28" s="8">
         <v>141</v>
       </c>
@@ -6007,7 +6084,7 @@
       <c r="C28" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="55" t="s">
         <v>185</v>
       </c>
       <c r="E28" s="13" t="s">
@@ -6016,7 +6093,7 @@
       <c r="F28" s="23"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" ht="17.55" spans="1:7">
+    <row r="29" ht="15.15" spans="1:7">
       <c r="A29" s="8">
         <v>322</v>
       </c>
@@ -6033,7 +6110,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" ht="17.55" spans="1:7">
+    <row r="30" ht="15.15" spans="1:7">
       <c r="A30" s="8">
         <v>415</v>
       </c>
@@ -6052,7 +6129,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" ht="17.55" spans="1:7">
+    <row r="31" ht="15.15" spans="1:7">
       <c r="A31" s="14">
         <v>123</v>
       </c>
@@ -6069,7 +6146,7 @@
       <c r="F31" s="25"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" ht="17.55" spans="1:7">
+    <row r="32" ht="15.15" spans="1:7">
       <c r="A32" s="8">
         <v>51</v>
       </c>
@@ -6086,11 +6163,11 @@
       <c r="F32" s="23"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" ht="118.75" spans="1:15">
+    <row r="33" ht="87.15" spans="1:15">
       <c r="A33" s="8">
         <v>177</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="57" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -6104,18 +6181,18 @@
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="26"/>
-      <c r="H33" s="60" t="s">
+      <c r="H33" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-    </row>
-    <row r="34" ht="17.55" spans="1:7">
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+    </row>
+    <row r="34" ht="15.15" spans="1:7">
       <c r="A34" s="8">
         <v>394</v>
       </c>
@@ -6132,7 +6209,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" ht="17.55" spans="1:7">
+    <row r="35" ht="15.15" spans="1:7">
       <c r="A35" s="8">
         <v>10</v>
       </c>
@@ -6149,7 +6226,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" ht="17.55" spans="1:7">
+    <row r="36" ht="15.15" spans="1:7">
       <c r="A36" s="8">
         <v>85</v>
       </c>
@@ -6166,16 +6243,18 @@
       <c r="F36" s="23"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" ht="17.55" spans="1:8">
+    <row r="37" ht="202.35" spans="1:8">
       <c r="A37" s="8">
         <v>196</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10">
-        <v>0.546</v>
+      <c r="C37" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>192</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>7</v>
@@ -6184,7 +6263,7 @@
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
     </row>
-    <row r="38" ht="17.55" spans="1:7">
+    <row r="38" ht="15.15" spans="1:7">
       <c r="A38" s="8">
         <v>2</v>
       </c>
@@ -6192,10 +6271,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>10</v>
@@ -6203,7 +6282,7 @@
       <c r="F38" s="23"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" ht="15.15" spans="1:7">
       <c r="A39" s="8">
         <v>55</v>
       </c>
@@ -6211,10 +6290,10 @@
         <v>43</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>10</v>
@@ -6222,7 +6301,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" ht="17.55" spans="1:7">
+    <row r="40" ht="15.15" spans="1:7">
       <c r="A40" s="8">
         <v>128</v>
       </c>
@@ -6239,7 +6318,7 @@
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" ht="17.55" spans="1:7">
+    <row r="41" ht="15.15" spans="1:7">
       <c r="A41" s="8">
         <v>409</v>
       </c>
@@ -6256,7 +6335,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" ht="17.55" spans="1:7">
+    <row r="42" ht="15.15" spans="1:7">
       <c r="A42" s="4">
         <v>200</v>
       </c>
@@ -6273,11 +6352,11 @@
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" ht="15.15" spans="1:7">
       <c r="A43" s="8">
         <v>175</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -6292,7 +6371,7 @@
       <c r="F43" s="23"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" ht="17.55" spans="1:7">
+    <row r="44" ht="15.15" spans="1:7">
       <c r="A44" s="8">
         <v>63</v>
       </c>
@@ -6309,7 +6388,7 @@
       <c r="F44" s="23"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" ht="17.55" spans="1:7">
+    <row r="45" ht="15.15" spans="1:7">
       <c r="A45" s="8">
         <v>147</v>
       </c>
@@ -6326,7 +6405,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" ht="17.55" spans="1:7">
+    <row r="46" ht="15.15" spans="1:7">
       <c r="A46" s="8">
         <v>64</v>
       </c>
@@ -6343,7 +6422,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" ht="17.55" spans="1:7">
+    <row r="47" ht="15.15" spans="1:7">
       <c r="A47" s="8">
         <v>124</v>
       </c>
@@ -6360,7 +6439,7 @@
       <c r="F47" s="23"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" ht="17.55" spans="1:7">
+    <row r="48" ht="15.15" spans="1:7">
       <c r="A48" s="8">
         <v>226</v>
       </c>
@@ -6377,7 +6456,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" ht="15.15" spans="1:7">
       <c r="A49" s="8">
         <v>137</v>
       </c>
@@ -6396,7 +6475,7 @@
       <c r="F49" s="23"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" ht="312.75" spans="1:7">
+    <row r="50" ht="288.75" spans="1:7">
       <c r="A50" s="8">
         <v>278</v>
       </c>
@@ -6404,10 +6483,10 @@
         <v>91</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>198</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>7</v>
@@ -6415,7 +6494,7 @@
       <c r="F50" s="23"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" ht="15.15" spans="1:7">
       <c r="A51" s="8">
         <v>130</v>
       </c>
@@ -6432,16 +6511,18 @@
       <c r="F51" s="23"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" ht="17.55" spans="1:7">
+    <row r="52" ht="43.95" spans="1:7">
       <c r="A52" s="8">
         <v>153</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10">
-        <v>0.494</v>
+      <c r="C52" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>200</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>10</v>
@@ -6449,16 +6530,18 @@
       <c r="F52" s="23"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" ht="17.55" spans="1:7">
+    <row r="53" ht="15.15" spans="1:7">
       <c r="A53" s="8">
         <v>88</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10">
-        <v>0.449</v>
+      <c r="C53" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="E53" s="13" t="s">
         <v>7</v>
@@ -6466,7 +6549,7 @@
       <c r="F53" s="23"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" ht="17.55" spans="1:7">
+    <row r="54" ht="15.15" spans="1:7">
       <c r="A54" s="8">
         <v>79</v>
       </c>
@@ -6483,7 +6566,7 @@
       <c r="F54" s="23"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" ht="17.55" spans="1:7">
+    <row r="55" ht="15.15" spans="1:7">
       <c r="A55" s="8">
         <v>70</v>
       </c>
@@ -6500,7 +6583,7 @@
       <c r="F55" s="23"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" ht="17.55" spans="1:7">
+    <row r="56" ht="15.15" spans="1:7">
       <c r="A56" s="8">
         <v>455</v>
       </c>
@@ -6517,7 +6600,7 @@
       <c r="F56" s="23"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" ht="17.55" spans="1:7">
+    <row r="57" ht="15.15" spans="1:7">
       <c r="A57" s="8">
         <v>53</v>
       </c>
@@ -6534,7 +6617,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="24"/>
     </row>
-    <row r="58" ht="17.55" spans="1:7">
+    <row r="58" ht="15.15" spans="1:7">
       <c r="A58" s="8">
         <v>131</v>
       </c>
@@ -6551,7 +6634,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="24"/>
     </row>
-    <row r="59" ht="17.55" spans="1:7">
+    <row r="59" ht="15.15" spans="1:7">
       <c r="A59" s="8">
         <v>178</v>
       </c>
@@ -6568,7 +6651,7 @@
       <c r="F59" s="23"/>
       <c r="G59" s="24"/>
     </row>
-    <row r="60" ht="17.55" spans="1:7">
+    <row r="60" ht="15.15" spans="1:7">
       <c r="A60" s="8">
         <v>139</v>
       </c>
@@ -6602,7 +6685,7 @@
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
     </row>
-    <row r="62" ht="17.55" spans="1:7">
+    <row r="62" ht="15.15" spans="1:7">
       <c r="A62" s="8">
         <v>56</v>
       </c>
@@ -6619,7 +6702,7 @@
       <c r="F62" s="23"/>
       <c r="G62" s="24"/>
     </row>
-    <row r="63" ht="17.55" spans="1:7">
+    <row r="63" ht="15.15" spans="1:7">
       <c r="A63" s="8">
         <v>22</v>
       </c>
@@ -6636,27 +6719,27 @@
       <c r="F63" s="23"/>
       <c r="G63" s="24"/>
     </row>
-    <row r="64" ht="118.75" spans="1:8">
+    <row r="64" ht="87.15" spans="1:8">
       <c r="A64" s="8">
         <v>176</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="9"/>
-      <c r="D64" s="56" t="s">
-        <v>197</v>
+      <c r="D64" s="55" t="s">
+        <v>203</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="23"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="60" t="s">
+      <c r="H64" s="58" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" ht="17.55" spans="1:7">
+    <row r="65" ht="15.15" spans="1:7">
       <c r="A65" s="8">
         <v>258</v>
       </c>
@@ -6664,10 +6747,10 @@
         <v>141</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>7</v>
@@ -6675,7 +6758,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="24"/>
     </row>
-    <row r="66" ht="125.75" spans="1:7">
+    <row r="66" ht="115.95" spans="1:7">
       <c r="A66" s="8">
         <v>160</v>
       </c>
@@ -6683,10 +6766,10 @@
         <v>45</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="56" t="s">
-        <v>201</v>
+        <v>206</v>
+      </c>
+      <c r="D66" s="55" t="s">
+        <v>207</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>7</v>
@@ -6694,7 +6777,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="24"/>
     </row>
-    <row r="67" ht="17.55" spans="1:7">
+    <row r="67" ht="15.15" spans="1:7">
       <c r="A67" s="8">
         <v>21</v>
       </c>
@@ -6711,7 +6794,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="24"/>
     </row>
-    <row r="68" ht="17.55" spans="1:7">
+    <row r="68" ht="15.15" spans="1:7">
       <c r="A68" s="8">
         <v>543</v>
       </c>
@@ -6728,7 +6811,7 @@
       <c r="F68" s="23"/>
       <c r="G68" s="24"/>
     </row>
-    <row r="69" ht="17.55" spans="1:7">
+    <row r="69" ht="15.15" spans="1:7">
       <c r="A69" s="14">
         <v>32</v>
       </c>
@@ -6745,7 +6828,7 @@
       <c r="F69" s="25"/>
       <c r="G69" s="26"/>
     </row>
-    <row r="70" ht="17.55" spans="1:7">
+    <row r="70" ht="15.15" spans="1:7">
       <c r="A70" s="8">
         <v>7</v>
       </c>
@@ -6753,10 +6836,10 @@
         <v>18</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>7</v>
@@ -6764,7 +6847,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="24"/>
     </row>
-    <row r="71" ht="17.55" spans="1:7">
+    <row r="71" ht="15.15" spans="1:7">
       <c r="A71" s="8">
         <v>39</v>
       </c>
@@ -6781,7 +6864,7 @@
       <c r="F71" s="23"/>
       <c r="G71" s="24"/>
     </row>
-    <row r="72" ht="17.55" spans="1:7">
+    <row r="72" ht="15.15" spans="1:7">
       <c r="A72" s="8">
         <v>106</v>
       </c>
@@ -6798,7 +6881,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="24"/>
     </row>
-    <row r="73" ht="17.55" spans="1:7">
+    <row r="73" ht="15.15" spans="1:7">
       <c r="A73" s="8">
         <v>300</v>
       </c>
@@ -6815,7 +6898,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="24"/>
     </row>
-    <row r="74" ht="17.55" spans="1:7">
+    <row r="74" ht="15.15" spans="1:7">
       <c r="A74" s="8">
         <v>54</v>
       </c>
@@ -6832,16 +6915,18 @@
       <c r="F74" s="23"/>
       <c r="G74" s="24"/>
     </row>
-    <row r="75" ht="17.55" spans="1:7">
+    <row r="75" ht="15.15" spans="1:7">
       <c r="A75" s="8">
         <v>268</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="10">
-        <v>0.517</v>
+      <c r="C75" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>211</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>7</v>
@@ -6849,16 +6934,18 @@
       <c r="F75" s="23"/>
       <c r="G75" s="24"/>
     </row>
-    <row r="76" ht="17.55" spans="1:7">
+    <row r="76" ht="15.15" spans="1:7">
       <c r="A76" s="8">
         <v>448</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="10">
-        <v>0.519</v>
+      <c r="C76" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>213</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>7</v>
@@ -6866,7 +6953,7 @@
       <c r="F76" s="23"/>
       <c r="G76" s="24"/>
     </row>
-    <row r="77" ht="17.55" spans="1:7">
+    <row r="77" ht="15.15" spans="1:7">
       <c r="A77" s="8">
         <v>113</v>
       </c>
@@ -6883,7 +6970,7 @@
       <c r="F77" s="23"/>
       <c r="G77" s="24"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" ht="15.15" spans="1:7">
       <c r="A78" s="8">
         <v>26</v>
       </c>
@@ -6891,10 +6978,10 @@
         <v>23</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>7</v>
@@ -6902,7 +6989,7 @@
       <c r="F78" s="23"/>
       <c r="G78" s="24"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" ht="15.15" spans="1:7">
       <c r="A79" s="8">
         <v>72</v>
       </c>
@@ -6919,7 +7006,7 @@
       <c r="F79" s="23"/>
       <c r="G79" s="24"/>
     </row>
-    <row r="80" ht="156.75" spans="1:7">
+    <row r="80" ht="130.35" spans="1:7">
       <c r="A80" s="8">
         <v>162</v>
       </c>
@@ -6927,10 +7014,10 @@
         <v>127</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D80" s="56" t="s">
-        <v>207</v>
+        <v>216</v>
+      </c>
+      <c r="D80" s="55" t="s">
+        <v>217</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>10</v>
@@ -6938,7 +7025,7 @@
       <c r="F80" s="23"/>
       <c r="G80" s="24"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" ht="15.15" spans="1:7">
       <c r="A81" s="8">
         <v>20</v>
       </c>
@@ -6946,10 +7033,10 @@
         <v>22</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>7</v>
@@ -6957,7 +7044,7 @@
       <c r="F81" s="27"/>
       <c r="G81" s="27"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" ht="15.15" spans="1:7">
       <c r="A82" s="4">
         <v>17</v>
       </c>
@@ -6974,18 +7061,18 @@
       <c r="F82" s="21"/>
       <c r="G82" s="22"/>
     </row>
-    <row r="83" ht="156.75" spans="1:7">
+    <row r="83" ht="144.75" spans="1:7">
       <c r="A83" s="8">
         <v>184</v>
       </c>
-      <c r="B83" s="59" t="s">
+      <c r="B83" s="57" t="s">
         <v>128</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D83" s="56" t="s">
-        <v>210</v>
+      <c r="D83" s="55" t="s">
+        <v>220</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>10</v>
@@ -6993,16 +7080,18 @@
       <c r="F83" s="23"/>
       <c r="G83" s="24"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" ht="15.15" spans="1:7">
       <c r="A84" s="8">
         <v>11</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="10">
-        <v>0.568</v>
+      <c r="C84" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>10</v>
@@ -7010,16 +7099,18 @@
       <c r="F84" s="23"/>
       <c r="G84" s="24"/>
     </row>
-    <row r="85" ht="17.55" spans="1:7">
+    <row r="85" ht="15.15" spans="1:7">
       <c r="A85" s="8">
         <v>172</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="10">
-        <v>0.392</v>
+      <c r="C85" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="E85" s="13" t="s">
         <v>7</v>
@@ -7027,7 +7118,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="24"/>
     </row>
-    <row r="86" ht="17.55" spans="1:7">
+    <row r="86" ht="15.15" spans="1:7">
       <c r="A86" s="8">
         <v>104</v>
       </c>
@@ -7044,7 +7135,7 @@
       <c r="F86" s="23"/>
       <c r="G86" s="24"/>
     </row>
-    <row r="87" ht="17.55" spans="1:7">
+    <row r="87" ht="15.15" spans="1:7">
       <c r="A87" s="8">
         <v>120</v>
       </c>
@@ -7061,7 +7152,7 @@
       <c r="F87" s="23"/>
       <c r="G87" s="24"/>
     </row>
-    <row r="88" ht="17.55" spans="1:7">
+    <row r="88" ht="15.15" spans="1:7">
       <c r="A88" s="8">
         <v>75</v>
       </c>
@@ -7078,7 +7169,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="24"/>
     </row>
-    <row r="89" ht="47.75" spans="1:7">
+    <row r="89" ht="43.95" spans="1:7">
       <c r="A89" s="8">
         <v>709</v>
       </c>
@@ -7086,10 +7177,10 @@
         <v>151</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D89" s="56" t="s">
-        <v>212</v>
+        <v>225</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>226</v>
       </c>
       <c r="E89" s="13" t="s">
         <v>7</v>
@@ -7097,18 +7188,18 @@
       <c r="F89" s="23"/>
       <c r="G89" s="24"/>
     </row>
-    <row r="90" ht="18.75" spans="1:7">
+    <row r="90" ht="16.5" spans="1:7">
       <c r="A90" s="8">
         <v>41</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C90" s="55" t="s">
-        <v>213</v>
+      <c r="C90" s="61" t="s">
+        <v>227</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>15</v>
@@ -7116,7 +7207,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="24"/>
     </row>
-    <row r="91" ht="17.55" spans="1:7">
+    <row r="91" ht="15.15" spans="1:7">
       <c r="A91" s="8">
         <v>8</v>
       </c>
@@ -7133,7 +7224,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="24"/>
     </row>
-    <row r="92" ht="203.75" spans="1:7">
+    <row r="92" ht="173.55" spans="1:7">
       <c r="A92" s="8">
         <v>50</v>
       </c>
@@ -7143,8 +7234,8 @@
       <c r="C92" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D92" s="56" t="s">
-        <v>215</v>
+      <c r="D92" s="55" t="s">
+        <v>229</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>10</v>
@@ -7152,7 +7243,7 @@
       <c r="F92" s="23"/>
       <c r="G92" s="24"/>
     </row>
-    <row r="93" ht="17.55" spans="1:7">
+    <row r="93" ht="15.15" spans="1:7">
       <c r="A93" s="8">
         <v>240</v>
       </c>
@@ -7169,7 +7260,7 @@
       <c r="F93" s="23"/>
       <c r="G93" s="24"/>
     </row>
-    <row r="94" ht="17.55" spans="1:7">
+    <row r="94" ht="15.15" spans="1:7">
       <c r="A94" s="8">
         <v>40</v>
       </c>
@@ -7186,7 +7277,7 @@
       <c r="F94" s="23"/>
       <c r="G94" s="24"/>
     </row>
-    <row r="95" ht="17.55" spans="1:7">
+    <row r="95" ht="15.15" spans="1:7">
       <c r="A95" s="8">
         <v>111</v>
       </c>
@@ -7203,7 +7294,7 @@
       <c r="F95" s="23"/>
       <c r="G95" s="24"/>
     </row>
-    <row r="96" ht="250.75" spans="1:7">
+    <row r="96" ht="231.15" spans="1:7">
       <c r="A96" s="8">
         <v>142</v>
       </c>
@@ -7211,10 +7302,10 @@
         <v>86</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D96" s="56" t="s">
-        <v>217</v>
+        <v>230</v>
+      </c>
+      <c r="D96" s="55" t="s">
+        <v>231</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>10</v>
@@ -7222,7 +7313,7 @@
       <c r="F96" s="23"/>
       <c r="G96" s="24"/>
     </row>
-    <row r="97" ht="17.55" spans="1:7">
+    <row r="97" ht="15.15" spans="1:7">
       <c r="A97" s="8">
         <v>232</v>
       </c>
@@ -7239,18 +7330,18 @@
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
     </row>
-    <row r="98" ht="17.55" spans="1:7">
+    <row r="98" ht="16.5" spans="1:7">
       <c r="A98" s="8">
         <v>19</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="63" t="s">
-        <v>218</v>
+      <c r="C98" s="62" t="s">
+        <v>232</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>10</v>
@@ -7258,7 +7349,7 @@
       <c r="F98" s="23"/>
       <c r="G98" s="24"/>
     </row>
-    <row r="99" ht="63.75" spans="1:7">
+    <row r="99" ht="58.35" spans="1:7">
       <c r="A99" s="14">
         <v>234</v>
       </c>
@@ -7266,10 +7357,10 @@
         <v>89</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D99" s="64" t="s">
-        <v>221</v>
+        <v>234</v>
+      </c>
+      <c r="D99" s="63" t="s">
+        <v>235</v>
       </c>
       <c r="E99" s="28" t="s">
         <v>7</v>
@@ -7277,7 +7368,7 @@
       <c r="F99" s="25"/>
       <c r="G99" s="26"/>
     </row>
-    <row r="100" ht="17.55" spans="1:7">
+    <row r="100" ht="15.15" spans="1:7">
       <c r="A100" s="8">
         <v>24</v>
       </c>
@@ -7294,7 +7385,7 @@
       <c r="F100" s="23"/>
       <c r="G100" s="24"/>
     </row>
-    <row r="101" ht="17.55" spans="1:7">
+    <row r="101" ht="15.15" spans="1:7">
       <c r="A101" s="8">
         <v>9</v>
       </c>
@@ -7309,11 +7400,11 @@
         <v>7</v>
       </c>
       <c r="F101" s="27" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G101" s="27"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" ht="15.15" spans="1:7">
       <c r="A102" s="4">
         <v>92</v>
       </c>
@@ -7321,10 +7412,10 @@
         <v>121</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E102" s="19" t="s">
         <v>10</v>
@@ -7332,7 +7423,7 @@
       <c r="F102" s="21"/>
       <c r="G102" s="22"/>
     </row>
-    <row r="103" ht="17.55" spans="1:7">
+    <row r="103" ht="15.15" spans="1:7">
       <c r="A103" s="8">
         <v>12</v>
       </c>
@@ -7349,7 +7440,7 @@
       <c r="F103" s="23"/>
       <c r="G103" s="24"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" ht="15.15" spans="1:7">
       <c r="A104" s="8">
         <v>287</v>
       </c>
@@ -7357,10 +7448,10 @@
         <v>132</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>10</v>
@@ -7368,7 +7459,7 @@
       <c r="F104" s="23"/>
       <c r="G104" s="24"/>
     </row>
-    <row r="105" ht="17.55" spans="1:7">
+    <row r="105" ht="15.15" spans="1:7">
       <c r="A105" s="8">
         <v>167</v>
       </c>
@@ -7385,7 +7476,7 @@
       <c r="F105" s="23"/>
       <c r="G105" s="24"/>
     </row>
-    <row r="106" ht="17.55" spans="1:7">
+    <row r="106" ht="15.15" spans="1:7">
       <c r="A106" s="8">
         <v>215</v>
       </c>
@@ -7402,7 +7493,7 @@
       <c r="F106" s="23"/>
       <c r="G106" s="24"/>
     </row>
-    <row r="107" ht="17.55" spans="1:7">
+    <row r="107" ht="15.15" spans="1:7">
       <c r="A107" s="8">
         <v>1114</v>
       </c>
@@ -7419,7 +7510,7 @@
       <c r="F107" s="23"/>
       <c r="G107" s="24"/>
     </row>
-    <row r="108" ht="17.55" spans="1:7">
+    <row r="108" ht="15.15" spans="1:7">
       <c r="A108" s="8">
         <v>36</v>
       </c>
@@ -7436,7 +7527,7 @@
       <c r="F108" s="23"/>
       <c r="G108" s="24"/>
     </row>
-    <row r="109" ht="17.55" spans="1:7">
+    <row r="109" ht="15.15" spans="1:7">
       <c r="A109" s="8">
         <v>107</v>
       </c>
@@ -7453,7 +7544,7 @@
       <c r="F109" s="23"/>
       <c r="G109" s="24"/>
     </row>
-    <row r="110" ht="17.55" spans="1:7">
+    <row r="110" ht="15.15" spans="1:7">
       <c r="A110" s="8">
         <v>23</v>
       </c>
@@ -7470,7 +7561,7 @@
       <c r="F110" s="23"/>
       <c r="G110" s="24"/>
     </row>
-    <row r="111" ht="17.55" spans="1:7">
+    <row r="111" ht="15.15" spans="1:7">
       <c r="A111" s="8">
         <v>29</v>
       </c>
@@ -7487,7 +7578,7 @@
       <c r="F111" s="23"/>
       <c r="G111" s="24"/>
     </row>
-    <row r="112" ht="17.55" spans="1:7">
+    <row r="112" ht="15.15" spans="1:7">
       <c r="A112" s="8">
         <v>98</v>
       </c>
@@ -7504,7 +7595,7 @@
       <c r="F112" s="23"/>
       <c r="G112" s="24"/>
     </row>
-    <row r="113" ht="17.55" spans="1:7">
+    <row r="113" ht="15.15" spans="1:7">
       <c r="A113" s="8">
         <v>349</v>
       </c>
@@ -7521,7 +7612,7 @@
       <c r="F113" s="23"/>
       <c r="G113" s="24"/>
     </row>
-    <row r="114" ht="17.55" spans="1:7">
+    <row r="114" ht="15.15" spans="1:7">
       <c r="A114" s="8">
         <v>14</v>
       </c>
@@ -7538,7 +7629,7 @@
       <c r="F114" s="23"/>
       <c r="G114" s="24"/>
     </row>
-    <row r="115" ht="17.55" spans="1:7">
+    <row r="115" ht="15.15" spans="1:7">
       <c r="A115" s="8">
         <v>38</v>
       </c>
@@ -7555,7 +7646,7 @@
       <c r="F115" s="23"/>
       <c r="G115" s="24"/>
     </row>
-    <row r="116" ht="17.55" spans="1:7">
+    <row r="116" ht="15.15" spans="1:7">
       <c r="A116" s="8">
         <v>122</v>
       </c>
@@ -7572,7 +7663,7 @@
       <c r="F116" s="23"/>
       <c r="G116" s="24"/>
     </row>
-    <row r="117" ht="17.55" spans="1:7">
+    <row r="117" ht="15.15" spans="1:7">
       <c r="A117" s="8">
         <v>31</v>
       </c>
@@ -7589,7 +7680,7 @@
       <c r="F117" s="23"/>
       <c r="G117" s="24"/>
     </row>
-    <row r="118" ht="17.55" spans="1:7">
+    <row r="118" ht="15.15" spans="1:7">
       <c r="A118" s="8">
         <v>387</v>
       </c>
@@ -7606,7 +7697,7 @@
       <c r="F118" s="23"/>
       <c r="G118" s="24"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" ht="15.15" spans="1:7">
       <c r="A119" s="14">
         <v>42</v>
       </c>
@@ -7623,7 +7714,7 @@
       <c r="F119" s="25"/>
       <c r="G119" s="26"/>
     </row>
-    <row r="120" ht="125.75" spans="1:7">
+    <row r="120" ht="115.95" spans="1:7">
       <c r="A120" s="8">
         <v>344</v>
       </c>
@@ -7631,10 +7722,10 @@
         <v>56</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D120" s="56" t="s">
-        <v>228</v>
+        <v>241</v>
+      </c>
+      <c r="D120" s="55" t="s">
+        <v>242</v>
       </c>
       <c r="E120" s="13" t="s">
         <v>7</v>
@@ -7642,7 +7733,7 @@
       <c r="F120" s="23"/>
       <c r="G120" s="24"/>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" ht="15.15" spans="1:7">
       <c r="A121" s="8">
         <v>18</v>
       </c>
@@ -7659,7 +7750,7 @@
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
     </row>
-    <row r="122" ht="17.55" spans="1:7">
+    <row r="122" ht="15.15" spans="1:7">
       <c r="A122" s="4">
         <v>145</v>
       </c>
@@ -7676,7 +7767,7 @@
       <c r="F122" s="21"/>
       <c r="G122" s="22"/>
     </row>
-    <row r="123" ht="17.55" spans="1:7">
+    <row r="123" ht="15.15" spans="1:7">
       <c r="A123" s="8">
         <v>102</v>
       </c>
@@ -7693,7 +7784,7 @@
       <c r="F123" s="23"/>
       <c r="G123" s="24"/>
     </row>
-    <row r="124" ht="17.55" spans="1:7">
+    <row r="124" ht="15.15" spans="1:7">
       <c r="A124" s="8">
         <v>13</v>
       </c>
@@ -7710,7 +7801,7 @@
       <c r="F124" s="23"/>
       <c r="G124" s="24"/>
     </row>
-    <row r="125" ht="17.55" spans="1:7">
+    <row r="125" ht="15.15" spans="1:7">
       <c r="A125" s="8">
         <v>242</v>
       </c>
@@ -7727,7 +7818,7 @@
       <c r="F125" s="23"/>
       <c r="G125" s="24"/>
     </row>
-    <row r="126" ht="17.55" spans="1:7">
+    <row r="126" ht="15.15" spans="1:7">
       <c r="A126" s="8">
         <v>69</v>
       </c>
@@ -7744,7 +7835,7 @@
       <c r="F126" s="23"/>
       <c r="G126" s="24"/>
     </row>
-    <row r="127" ht="17.55" spans="1:7">
+    <row r="127" ht="15.15" spans="1:7">
       <c r="A127" s="8">
         <v>67</v>
       </c>
@@ -7752,10 +7843,10 @@
         <v>120</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>7</v>
@@ -7763,7 +7854,7 @@
       <c r="F127" s="23"/>
       <c r="G127" s="24"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" ht="15.15" spans="1:7">
       <c r="A128" s="8">
         <v>144</v>
       </c>
@@ -7780,7 +7871,7 @@
       <c r="F128" s="23"/>
       <c r="G128" s="24"/>
     </row>
-    <row r="129" ht="125.75" spans="1:7">
+    <row r="129" ht="115.95" spans="1:7">
       <c r="A129" s="8">
         <v>136</v>
       </c>
@@ -7788,10 +7879,10 @@
         <v>59</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D129" s="56" t="s">
-        <v>232</v>
+        <v>245</v>
+      </c>
+      <c r="D129" s="55" t="s">
+        <v>246</v>
       </c>
       <c r="E129" s="13" t="s">
         <v>7</v>
@@ -7799,7 +7890,7 @@
       <c r="F129" s="23"/>
       <c r="G129" s="24"/>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" ht="15.15" spans="1:7">
       <c r="A130" s="8">
         <v>169</v>
       </c>
@@ -7816,7 +7907,7 @@
       <c r="F130" s="23"/>
       <c r="G130" s="24"/>
     </row>
-    <row r="131" ht="17.55" spans="1:7">
+    <row r="131" ht="15.15" spans="1:7">
       <c r="A131" s="8">
         <v>16</v>
       </c>
@@ -7833,16 +7924,18 @@
       <c r="F131" s="23"/>
       <c r="G131" s="24"/>
     </row>
-    <row r="132" ht="17.55" spans="1:7">
+    <row r="132" ht="15.15" spans="1:7">
       <c r="A132" s="8">
         <v>33</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="10">
-        <v>0.361</v>
+      <c r="C132" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>248</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>10</v>
@@ -7850,7 +7943,7 @@
       <c r="F132" s="23"/>
       <c r="G132" s="24"/>
     </row>
-    <row r="133" ht="17.55" spans="1:7">
+    <row r="133" ht="15.15" spans="1:7">
       <c r="A133" s="8">
         <v>83</v>
       </c>
@@ -7858,10 +7951,10 @@
         <v>147</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>7</v>
@@ -7869,7 +7962,7 @@
       <c r="F133" s="23"/>
       <c r="G133" s="24"/>
     </row>
-    <row r="134" ht="17.55" spans="1:7">
+    <row r="134" ht="15.15" spans="1:7">
       <c r="A134" s="8">
         <v>217</v>
       </c>
@@ -7886,7 +7979,7 @@
       <c r="F134" s="23"/>
       <c r="G134" s="24"/>
     </row>
-    <row r="135" ht="17.55" spans="1:7">
+    <row r="135" ht="15.15" spans="1:7">
       <c r="A135" s="8">
         <v>28</v>
       </c>
@@ -7903,7 +7996,7 @@
       <c r="F135" s="23"/>
       <c r="G135" s="24"/>
     </row>
-    <row r="136" ht="17.55" spans="1:7">
+    <row r="136" ht="15.15" spans="1:7">
       <c r="A136" s="8">
         <v>198</v>
       </c>
@@ -7911,10 +8004,10 @@
         <v>106</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="E136" s="13" t="s">
         <v>7</v>
@@ -7922,7 +8015,7 @@
       <c r="F136" s="23"/>
       <c r="G136" s="24"/>
     </row>
-    <row r="137" ht="17.55" spans="1:7">
+    <row r="137" ht="15.15" spans="1:7">
       <c r="A137" s="8">
         <v>237</v>
       </c>
@@ -7939,7 +8032,7 @@
       <c r="F137" s="23"/>
       <c r="G137" s="24"/>
     </row>
-    <row r="138" ht="17.55" spans="1:7">
+    <row r="138" ht="15.15" spans="1:7">
       <c r="A138" s="8">
         <v>101</v>
       </c>
@@ -7956,7 +8049,7 @@
       <c r="F138" s="23"/>
       <c r="G138" s="24"/>
     </row>
-    <row r="139" ht="17.55" spans="1:7">
+    <row r="139" ht="15.15" spans="1:7">
       <c r="A139" s="14">
         <v>66</v>
       </c>
@@ -7964,10 +8057,10 @@
         <v>119</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="E139" s="28" t="s">
         <v>7</v>
@@ -7975,7 +8068,7 @@
       <c r="F139" s="25"/>
       <c r="G139" s="26"/>
     </row>
-    <row r="140" ht="17.55" spans="1:7">
+    <row r="140" ht="15.15" spans="1:7">
       <c r="A140" s="8">
         <v>121</v>
       </c>
@@ -8145,7 +8238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -8153,7 +8246,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="8.88617886178862" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8161,7 +8254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F97"/>
   <sheetViews>
@@ -8169,13 +8262,13 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88617886178862" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="21.9711538461538" customWidth="1"/>
-    <col min="3" max="3" width="50.5096153846154" customWidth="1"/>
+    <col min="2" max="2" width="21.9674796747967" customWidth="1"/>
+    <col min="3" max="3" width="50.5121951219512" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:6">
+    <row r="1" ht="15.15" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8195,12 +8288,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:6">
+    <row r="2" ht="15.15" spans="1:6">
       <c r="A2" s="30" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C2" s="32">
         <v>0.332</v>
@@ -8211,12 +8304,12 @@
       <c r="E2" s="47"/>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" ht="17.55" spans="1:6">
+    <row r="3" ht="15.15" spans="1:6">
       <c r="A3" s="34" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C3" s="36">
         <v>0.285</v>
@@ -8227,12 +8320,12 @@
       <c r="E3" s="49"/>
       <c r="F3" s="50"/>
     </row>
-    <row r="4" ht="17.55" spans="1:6">
+    <row r="4" ht="15.15" spans="1:6">
       <c r="A4" s="34" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C4" s="36">
         <v>0.361</v>
@@ -8243,12 +8336,12 @@
       <c r="E4" s="49"/>
       <c r="F4" s="50"/>
     </row>
-    <row r="5" ht="17.55" spans="1:6">
+    <row r="5" ht="15.15" spans="1:6">
       <c r="A5" s="34" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C5" s="36">
         <v>0.608</v>
@@ -8259,9 +8352,9 @@
       <c r="E5" s="49"/>
       <c r="F5" s="50"/>
     </row>
-    <row r="6" ht="17.55" spans="1:6">
+    <row r="6" ht="15.15" spans="1:6">
       <c r="A6" s="34" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>96</v>
@@ -8275,9 +8368,9 @@
       <c r="E6" s="49"/>
       <c r="F6" s="50"/>
     </row>
-    <row r="7" ht="17.55" spans="1:6">
+    <row r="7" ht="15.15" spans="1:6">
       <c r="A7" s="34" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>142</v>
@@ -8291,9 +8384,9 @@
       <c r="E7" s="49"/>
       <c r="F7" s="50"/>
     </row>
-    <row r="8" ht="17.55" spans="1:6">
+    <row r="8" ht="15.15" spans="1:6">
       <c r="A8" s="34" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>28</v>
@@ -8307,12 +8400,12 @@
       <c r="E8" s="49"/>
       <c r="F8" s="50"/>
     </row>
-    <row r="9" ht="17.55" spans="1:6">
+    <row r="9" ht="15.15" spans="1:6">
       <c r="A9" s="34" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C9" s="36">
         <v>0.497</v>
@@ -8323,12 +8416,12 @@
       <c r="E9" s="49"/>
       <c r="F9" s="50"/>
     </row>
-    <row r="10" ht="17.55" spans="1:6">
+    <row r="10" ht="15.15" spans="1:6">
       <c r="A10" s="34" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="C10" s="36">
         <v>0.419</v>
@@ -8339,9 +8432,9 @@
       <c r="E10" s="49"/>
       <c r="F10" s="50"/>
     </row>
-    <row r="11" ht="17.55" spans="1:6">
+    <row r="11" ht="15.15" spans="1:6">
       <c r="A11" s="39" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>84</v>
@@ -8355,9 +8448,9 @@
       <c r="E11" s="51"/>
       <c r="F11" s="52"/>
     </row>
-    <row r="12" ht="17.55" spans="1:6">
+    <row r="12" ht="15.15" spans="1:6">
       <c r="A12" s="34" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>48</v>
@@ -8371,12 +8464,12 @@
       <c r="E12" s="49"/>
       <c r="F12" s="50"/>
     </row>
-    <row r="13" ht="17.55" spans="1:6">
+    <row r="13" ht="15.15" spans="1:6">
       <c r="A13" s="34" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C13" s="36">
         <v>0.419</v>
@@ -8387,12 +8480,12 @@
       <c r="E13" s="49"/>
       <c r="F13" s="50"/>
     </row>
-    <row r="14" ht="17.55" spans="1:6">
+    <row r="14" ht="15.15" spans="1:6">
       <c r="A14" s="34" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C14" s="36">
         <v>0.368</v>
@@ -8403,9 +8496,9 @@
       <c r="E14" s="49"/>
       <c r="F14" s="50"/>
     </row>
-    <row r="15" ht="17.55" spans="1:6">
+    <row r="15" ht="15.15" spans="1:6">
       <c r="A15" s="34" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>52</v>
@@ -8419,12 +8512,12 @@
       <c r="E15" s="49"/>
       <c r="F15" s="50"/>
     </row>
-    <row r="16" ht="17.55" spans="1:6">
+    <row r="16" ht="15.15" spans="1:6">
       <c r="A16" s="34" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C16" s="36">
         <v>0.363</v>
@@ -8435,12 +8528,12 @@
       <c r="E16" s="49"/>
       <c r="F16" s="50"/>
     </row>
-    <row r="17" ht="17.55" spans="1:6">
+    <row r="17" ht="15.15" spans="1:6">
       <c r="A17" s="34" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C17" s="36">
         <v>0.603</v>
@@ -8451,12 +8544,12 @@
       <c r="E17" s="49"/>
       <c r="F17" s="50"/>
     </row>
-    <row r="18" ht="17.55" spans="1:6">
+    <row r="18" ht="15.15" spans="1:6">
       <c r="A18" s="34" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C18" s="36">
         <v>0.396</v>
@@ -8467,12 +8560,12 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50"/>
     </row>
-    <row r="19" ht="17.55" spans="1:6">
+    <row r="19" ht="15.15" spans="1:6">
       <c r="A19" s="34" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C19" s="36">
         <v>0.512</v>
@@ -8483,9 +8576,9 @@
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
     </row>
-    <row r="20" ht="17.55" spans="1:6">
+    <row r="20" ht="15.15" spans="1:6">
       <c r="A20" s="34" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>51</v>
@@ -8499,12 +8592,12 @@
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
     </row>
-    <row r="21" ht="17.55" spans="1:6">
+    <row r="21" ht="15.15" spans="1:6">
       <c r="A21" s="34" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C21" s="36">
         <v>0.368</v>
@@ -8515,9 +8608,9 @@
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
     </row>
-    <row r="22" ht="17.55" spans="1:6">
+    <row r="22" ht="15.15" spans="1:6">
       <c r="A22" s="30" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B22" s="31" t="s">
         <v>50</v>
@@ -8531,9 +8624,9 @@
       <c r="E22" s="47"/>
       <c r="F22" s="48"/>
     </row>
-    <row r="23" ht="17.55" spans="1:6">
+    <row r="23" ht="15.15" spans="1:6">
       <c r="A23" s="34" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>128</v>
@@ -8547,9 +8640,9 @@
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
     </row>
-    <row r="24" ht="17.55" spans="1:6">
+    <row r="24" ht="15.15" spans="1:6">
       <c r="A24" s="34" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>9</v>
@@ -8563,12 +8656,12 @@
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
     </row>
-    <row r="25" ht="17.55" spans="1:6">
+    <row r="25" ht="15.15" spans="1:6">
       <c r="A25" s="34" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C25" s="36">
         <v>0.662</v>
@@ -8579,9 +8672,9 @@
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
     </row>
-    <row r="26" ht="17.55" spans="1:6">
+    <row r="26" ht="15.15" spans="1:6">
       <c r="A26" s="34" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>40</v>
@@ -8595,9 +8688,9 @@
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
     </row>
-    <row r="27" ht="17.55" spans="1:6">
+    <row r="27" ht="15.15" spans="1:6">
       <c r="A27" s="34" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>82</v>
@@ -8611,9 +8704,9 @@
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
     </row>
-    <row r="28" ht="17.55" spans="1:6">
+    <row r="28" ht="15.15" spans="1:6">
       <c r="A28" s="34" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>148</v>
@@ -8627,9 +8720,9 @@
       <c r="E28" s="49"/>
       <c r="F28" s="50"/>
     </row>
-    <row r="29" ht="17.55" spans="1:6">
+    <row r="29" ht="15.15" spans="1:6">
       <c r="A29" s="34" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>33</v>
@@ -8643,12 +8736,12 @@
       <c r="E29" s="49"/>
       <c r="F29" s="50"/>
     </row>
-    <row r="30" ht="17.55" spans="1:6">
+    <row r="30" ht="15.15" spans="1:6">
       <c r="A30" s="34" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C30" s="36">
         <v>0.286</v>
@@ -8659,9 +8752,9 @@
       <c r="E30" s="49"/>
       <c r="F30" s="50"/>
     </row>
-    <row r="31" ht="17.55" spans="1:6">
+    <row r="31" ht="15.15" spans="1:6">
       <c r="A31" s="34" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>94</v>
@@ -8675,9 +8768,9 @@
       <c r="E31" s="49"/>
       <c r="F31" s="50"/>
     </row>
-    <row r="32" ht="17.55" spans="1:6">
+    <row r="32" ht="15.15" spans="1:6">
       <c r="A32" s="34" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>121</v>
@@ -8691,9 +8784,9 @@
       <c r="E32" s="49"/>
       <c r="F32" s="50"/>
     </row>
-    <row r="33" ht="17.55" spans="1:6">
+    <row r="33" ht="15.15" spans="1:6">
       <c r="A33" s="34" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>101</v>
@@ -8707,9 +8800,9 @@
       <c r="E33" s="49"/>
       <c r="F33" s="50"/>
     </row>
-    <row r="34" ht="17.55" spans="1:6">
+    <row r="34" ht="15.15" spans="1:6">
       <c r="A34" s="34" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>6</v>
@@ -8723,12 +8816,12 @@
       <c r="E34" s="49"/>
       <c r="F34" s="50"/>
     </row>
-    <row r="35" ht="17.55" spans="1:6">
+    <row r="35" ht="15.15" spans="1:6">
       <c r="A35" s="34" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C35" s="36">
         <v>0.38</v>
@@ -8739,9 +8832,9 @@
       <c r="E35" s="49"/>
       <c r="F35" s="50"/>
     </row>
-    <row r="36" ht="17.55" spans="1:6">
+    <row r="36" ht="15.15" spans="1:6">
       <c r="A36" s="34" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>14</v>
@@ -8755,12 +8848,12 @@
       <c r="E36" s="49"/>
       <c r="F36" s="50"/>
     </row>
-    <row r="37" ht="17.55" spans="1:6">
+    <row r="37" ht="15.15" spans="1:6">
       <c r="A37" s="34" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C37" s="36">
         <v>0.392</v>
@@ -8771,9 +8864,9 @@
       <c r="E37" s="49"/>
       <c r="F37" s="50"/>
     </row>
-    <row r="38" ht="17.55" spans="1:6">
+    <row r="38" ht="15.15" spans="1:6">
       <c r="A38" s="34" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>24</v>
@@ -8787,12 +8880,12 @@
       <c r="E38" s="49"/>
       <c r="F38" s="50"/>
     </row>
-    <row r="39" ht="17.55" spans="1:6">
+    <row r="39" ht="15.15" spans="1:6">
       <c r="A39" s="34" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="C39" s="36">
         <v>0.362</v>
@@ -8803,9 +8896,9 @@
       <c r="E39" s="49"/>
       <c r="F39" s="50"/>
     </row>
-    <row r="40" ht="17.55" spans="1:6">
+    <row r="40" ht="15.15" spans="1:6">
       <c r="A40" s="39" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B40" s="40" t="s">
         <v>20</v>
@@ -8819,12 +8912,12 @@
       <c r="E40" s="51"/>
       <c r="F40" s="52"/>
     </row>
-    <row r="41" ht="17.55" spans="1:6">
+    <row r="41" ht="15.15" spans="1:6">
       <c r="A41" s="34" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B41" s="35" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C41" s="36">
         <v>0.293</v>
@@ -8835,12 +8928,12 @@
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
     </row>
-    <row r="42" ht="17.55" spans="1:6">
+    <row r="42" ht="15.15" spans="1:6">
       <c r="A42" s="30" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C42" s="32">
         <v>0.38</v>
@@ -8851,9 +8944,9 @@
       <c r="E42" s="47"/>
       <c r="F42" s="48"/>
     </row>
-    <row r="43" ht="17.55" spans="1:6">
+    <row r="43" ht="15.15" spans="1:6">
       <c r="A43" s="34" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>63</v>
@@ -8867,9 +8960,9 @@
       <c r="E43" s="49"/>
       <c r="F43" s="50"/>
     </row>
-    <row r="44" ht="17.55" spans="1:6">
+    <row r="44" ht="15.15" spans="1:6">
       <c r="A44" s="34" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>17</v>
@@ -8883,12 +8976,12 @@
       <c r="E44" s="49"/>
       <c r="F44" s="50"/>
     </row>
-    <row r="45" ht="17.55" spans="1:6">
+    <row r="45" ht="15.15" spans="1:6">
       <c r="A45" s="34" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C45" s="36">
         <v>0.421</v>
@@ -8899,12 +8992,12 @@
       <c r="E45" s="49"/>
       <c r="F45" s="50"/>
     </row>
-    <row r="46" ht="17.55" spans="1:6">
+    <row r="46" ht="15.15" spans="1:6">
       <c r="A46" s="34" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C46" s="36">
         <v>0.551</v>
@@ -8915,12 +9008,12 @@
       <c r="E46" s="49"/>
       <c r="F46" s="50"/>
     </row>
-    <row r="47" ht="17.55" spans="1:6">
+    <row r="47" ht="15.15" spans="1:6">
       <c r="A47" s="34" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C47" s="36">
         <v>0.616</v>
@@ -8931,9 +9024,9 @@
       <c r="E47" s="49"/>
       <c r="F47" s="50"/>
     </row>
-    <row r="48" ht="17.55" spans="1:6">
+    <row r="48" ht="15.15" spans="1:6">
       <c r="A48" s="34" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B48" s="35" t="s">
         <v>31</v>
@@ -8947,9 +9040,9 @@
       <c r="E48" s="49"/>
       <c r="F48" s="50"/>
     </row>
-    <row r="49" ht="17.55" spans="1:6">
+    <row r="49" ht="15.15" spans="1:6">
       <c r="A49" s="34" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="B49" s="35" t="s">
         <v>76</v>
@@ -8963,9 +9056,9 @@
       <c r="E49" s="49"/>
       <c r="F49" s="50"/>
     </row>
-    <row r="50" ht="17.55" spans="1:6">
+    <row r="50" ht="15.15" spans="1:6">
       <c r="A50" s="34" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="B50" s="35" t="s">
         <v>41</v>
@@ -8979,12 +9072,12 @@
       <c r="E50" s="49"/>
       <c r="F50" s="50"/>
     </row>
-    <row r="51" ht="17.55" spans="1:6">
+    <row r="51" ht="15.15" spans="1:6">
       <c r="A51" s="34" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C51" s="36">
         <v>0.614</v>
@@ -8995,9 +9088,9 @@
       <c r="E51" s="49"/>
       <c r="F51" s="50"/>
     </row>
-    <row r="52" ht="17.55" spans="1:6">
+    <row r="52" ht="15.15" spans="1:6">
       <c r="A52" s="34" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B52" s="35" t="s">
         <v>88</v>
@@ -9011,9 +9104,9 @@
       <c r="E52" s="49"/>
       <c r="F52" s="50"/>
     </row>
-    <row r="53" ht="17.55" spans="1:6">
+    <row r="53" ht="15.15" spans="1:6">
       <c r="A53" s="34" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>12</v>
@@ -9027,9 +9120,9 @@
       <c r="E53" s="49"/>
       <c r="F53" s="50"/>
     </row>
-    <row r="54" ht="17.55" spans="1:6">
+    <row r="54" ht="15.15" spans="1:6">
       <c r="A54" s="34" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B54" s="35" t="s">
         <v>146</v>
@@ -9043,12 +9136,12 @@
       <c r="E54" s="49"/>
       <c r="F54" s="50"/>
     </row>
-    <row r="55" ht="17.55" spans="1:6">
+    <row r="55" ht="15.15" spans="1:6">
       <c r="A55" s="34" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C55" s="36">
         <v>0.756</v>
@@ -9059,12 +9152,12 @@
       <c r="E55" s="49"/>
       <c r="F55" s="50"/>
     </row>
-    <row r="56" ht="17.55" spans="1:6">
+    <row r="56" ht="15.15" spans="1:6">
       <c r="A56" s="34" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C56" s="36">
         <v>0.214</v>
@@ -9075,12 +9168,12 @@
       <c r="E56" s="49"/>
       <c r="F56" s="50"/>
     </row>
-    <row r="57" ht="17.55" spans="1:6">
+    <row r="57" ht="15.15" spans="1:6">
       <c r="A57" s="34" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C57" s="36">
         <v>0.355</v>
@@ -9091,9 +9184,9 @@
       <c r="E57" s="49"/>
       <c r="F57" s="50"/>
     </row>
-    <row r="58" ht="17.55" spans="1:6">
+    <row r="58" ht="15.15" spans="1:6">
       <c r="A58" s="34" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>16</v>
@@ -9107,9 +9200,9 @@
       <c r="E58" s="49"/>
       <c r="F58" s="50"/>
     </row>
-    <row r="59" ht="17.55" spans="1:6">
+    <row r="59" ht="15.15" spans="1:6">
       <c r="A59" s="34" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>21</v>
@@ -9123,12 +9216,12 @@
       <c r="E59" s="49"/>
       <c r="F59" s="50"/>
     </row>
-    <row r="60" ht="17.55" spans="1:6">
+    <row r="60" ht="15.15" spans="1:6">
       <c r="A60" s="34" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C60" s="36">
         <v>0.427</v>
@@ -9139,9 +9232,9 @@
       <c r="E60" s="49"/>
       <c r="F60" s="50"/>
     </row>
-    <row r="61" ht="17.55" spans="1:6">
+    <row r="61" ht="15.15" spans="1:6">
       <c r="A61" s="39" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="B61" s="40" t="s">
         <v>124</v>
@@ -9155,12 +9248,12 @@
       <c r="E61" s="53"/>
       <c r="F61" s="53"/>
     </row>
-    <row r="62" ht="17.55" spans="1:6">
+    <row r="62" ht="15.15" spans="1:6">
       <c r="A62" s="34" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C62" s="36">
         <v>0.507</v>
@@ -9171,12 +9264,12 @@
       <c r="E62" s="49"/>
       <c r="F62" s="50"/>
     </row>
-    <row r="63" ht="17.55" spans="1:6">
+    <row r="63" ht="15.15" spans="1:6">
       <c r="A63" s="34" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C63" s="36">
         <v>0.63</v>
@@ -9187,9 +9280,9 @@
       <c r="E63" s="49"/>
       <c r="F63" s="50"/>
     </row>
-    <row r="64" ht="17.55" spans="1:6">
+    <row r="64" ht="15.15" spans="1:6">
       <c r="A64" s="34" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B64" s="35" t="s">
         <v>64</v>
@@ -9203,12 +9296,12 @@
       <c r="E64" s="49"/>
       <c r="F64" s="50"/>
     </row>
-    <row r="65" ht="17.55" spans="1:6">
+    <row r="65" ht="15.15" spans="1:6">
       <c r="A65" s="34" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C65" s="36">
         <v>0.604</v>
@@ -9219,9 +9312,9 @@
       <c r="E65" s="49"/>
       <c r="F65" s="50"/>
     </row>
-    <row r="66" ht="17.55" spans="1:6">
+    <row r="66" ht="15.15" spans="1:6">
       <c r="A66" s="34" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>29</v>
@@ -9235,9 +9328,9 @@
       <c r="E66" s="49"/>
       <c r="F66" s="50"/>
     </row>
-    <row r="67" ht="17.55" spans="1:6">
+    <row r="67" ht="15.15" spans="1:6">
       <c r="A67" s="34" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>68</v>
@@ -9251,9 +9344,9 @@
       <c r="E67" s="49"/>
       <c r="F67" s="50"/>
     </row>
-    <row r="68" ht="17.55" spans="1:6">
+    <row r="68" ht="15.15" spans="1:6">
       <c r="A68" s="34" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B68" s="35" t="s">
         <v>70</v>
@@ -9267,12 +9360,12 @@
       <c r="E68" s="49"/>
       <c r="F68" s="50"/>
     </row>
-    <row r="69" ht="17.55" spans="1:6">
+    <row r="69" ht="15.15" spans="1:6">
       <c r="A69" s="34" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C69" s="36">
         <v>0.566</v>
@@ -9283,9 +9376,9 @@
       <c r="E69" s="49"/>
       <c r="F69" s="50"/>
     </row>
-    <row r="70" ht="17.55" spans="1:6">
+    <row r="70" ht="15.15" spans="1:6">
       <c r="A70" s="34" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>25</v>
@@ -9299,9 +9392,9 @@
       <c r="E70" s="49"/>
       <c r="F70" s="50"/>
     </row>
-    <row r="71" ht="17.55" spans="1:6">
+    <row r="71" ht="15.15" spans="1:6">
       <c r="A71" s="34" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>115</v>
@@ -9315,9 +9408,9 @@
       <c r="E71" s="49"/>
       <c r="F71" s="50"/>
     </row>
-    <row r="72" ht="17.55" spans="1:6">
+    <row r="72" ht="15.15" spans="1:6">
       <c r="A72" s="34" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B72" s="35" t="s">
         <v>110</v>
@@ -9331,9 +9424,9 @@
       <c r="E72" s="49"/>
       <c r="F72" s="50"/>
     </row>
-    <row r="73" ht="17.55" spans="1:6">
+    <row r="73" ht="15.15" spans="1:6">
       <c r="A73" s="34" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B73" s="35" t="s">
         <v>97</v>
@@ -9347,12 +9440,12 @@
       <c r="E73" s="49"/>
       <c r="F73" s="50"/>
     </row>
-    <row r="74" ht="17.55" spans="1:6">
+    <row r="74" ht="15.15" spans="1:6">
       <c r="A74" s="34" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C74" s="36">
         <v>0.655</v>
@@ -9363,9 +9456,9 @@
       <c r="E74" s="49"/>
       <c r="F74" s="50"/>
     </row>
-    <row r="75" ht="17.55" spans="1:6">
+    <row r="75" ht="15.15" spans="1:6">
       <c r="A75" s="34" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B75" s="35" t="s">
         <v>18</v>
@@ -9379,9 +9472,9 @@
       <c r="E75" s="49"/>
       <c r="F75" s="50"/>
     </row>
-    <row r="76" ht="17.55" spans="1:6">
+    <row r="76" ht="15.15" spans="1:6">
       <c r="A76" s="34" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>57</v>
@@ -9395,12 +9488,12 @@
       <c r="E76" s="49"/>
       <c r="F76" s="50"/>
     </row>
-    <row r="77" ht="17.55" spans="1:6">
+    <row r="77" ht="15.15" spans="1:6">
       <c r="A77" s="34" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C77" s="36">
         <v>0.474</v>
@@ -9411,9 +9504,9 @@
       <c r="E77" s="49"/>
       <c r="F77" s="50"/>
     </row>
-    <row r="78" ht="17.55" spans="1:6">
+    <row r="78" ht="15.15" spans="1:6">
       <c r="A78" s="39" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B78" s="40" t="s">
         <v>13</v>
@@ -9427,12 +9520,12 @@
       <c r="E78" s="51"/>
       <c r="F78" s="52"/>
     </row>
-    <row r="79" ht="17.55" spans="1:6">
+    <row r="79" ht="15.15" spans="1:6">
       <c r="A79" s="34" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C79" s="36">
         <v>0.742</v>
@@ -9443,9 +9536,9 @@
       <c r="E79" s="49"/>
       <c r="F79" s="50"/>
     </row>
-    <row r="80" ht="17.55" spans="1:6">
+    <row r="80" ht="15.15" spans="1:6">
       <c r="A80" s="34" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>35</v>
@@ -9459,9 +9552,9 @@
       <c r="E80" s="49"/>
       <c r="F80" s="50"/>
     </row>
-    <row r="81" ht="17.55" spans="1:6">
+    <row r="81" ht="15.15" spans="1:6">
       <c r="A81" s="34" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B81" s="35" t="s">
         <v>77</v>
@@ -9475,9 +9568,9 @@
       <c r="E81" s="53"/>
       <c r="F81" s="53"/>
     </row>
-    <row r="82" ht="17.55" spans="1:6">
+    <row r="82" ht="15.15" spans="1:6">
       <c r="A82" s="30" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B82" s="31" t="s">
         <v>22</v>
@@ -9491,12 +9584,12 @@
       <c r="E82" s="47"/>
       <c r="F82" s="48"/>
     </row>
-    <row r="83" ht="17.55" spans="1:6">
+    <row r="83" ht="15.15" spans="1:6">
       <c r="A83" s="34" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C83" s="36">
         <v>0.67</v>
@@ -9507,12 +9600,12 @@
       <c r="E83" s="49"/>
       <c r="F83" s="50"/>
     </row>
-    <row r="84" ht="17.55" spans="1:6">
+    <row r="84" ht="15.15" spans="1:6">
       <c r="A84" s="34" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C84" s="36">
         <v>0.382</v>
@@ -9523,9 +9616,9 @@
       <c r="E84" s="49"/>
       <c r="F84" s="50"/>
     </row>
-    <row r="85" ht="17.55" spans="1:6">
+    <row r="85" ht="15.15" spans="1:6">
       <c r="A85" s="34" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B85" s="35" t="s">
         <v>66</v>
@@ -9539,9 +9632,9 @@
       <c r="E85" s="49"/>
       <c r="F85" s="50"/>
     </row>
-    <row r="86" ht="17.55" spans="1:6">
+    <row r="86" ht="15.15" spans="1:6">
       <c r="A86" s="34" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B86" s="35" t="s">
         <v>39</v>
@@ -9555,9 +9648,9 @@
       <c r="E86" s="49"/>
       <c r="F86" s="50"/>
     </row>
-    <row r="87" ht="17.55" spans="1:6">
+    <row r="87" ht="15.15" spans="1:6">
       <c r="A87" s="34" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B87" s="35" t="s">
         <v>45</v>
@@ -9571,9 +9664,9 @@
       <c r="E87" s="49"/>
       <c r="F87" s="50"/>
     </row>
-    <row r="88" ht="17.55" spans="1:6">
+    <row r="88" ht="15.15" spans="1:6">
       <c r="A88" s="34" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="B88" s="35" t="s">
         <v>79</v>
@@ -9587,9 +9680,9 @@
       <c r="E88" s="49"/>
       <c r="F88" s="50"/>
     </row>
-    <row r="89" ht="17.55" spans="1:6">
+    <row r="89" ht="15.15" spans="1:6">
       <c r="A89" s="34" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B89" s="35" t="s">
         <v>61</v>
@@ -9603,9 +9696,9 @@
       <c r="E89" s="49"/>
       <c r="F89" s="50"/>
     </row>
-    <row r="90" ht="17.55" spans="1:6">
+    <row r="90" ht="15.15" spans="1:6">
       <c r="A90" s="34" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B90" s="35" t="s">
         <v>32</v>
@@ -9619,9 +9712,9 @@
       <c r="E90" s="49"/>
       <c r="F90" s="50"/>
     </row>
-    <row r="91" ht="17.55" spans="1:6">
+    <row r="91" ht="15.15" spans="1:6">
       <c r="A91" s="34" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="B91" s="35" t="s">
         <v>26</v>
@@ -9635,9 +9728,9 @@
       <c r="E91" s="49"/>
       <c r="F91" s="50"/>
     </row>
-    <row r="92" ht="17.55" spans="1:6">
+    <row r="92" ht="15.15" spans="1:6">
       <c r="A92" s="34" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="B92" s="35" t="s">
         <v>95</v>
@@ -9651,9 +9744,9 @@
       <c r="E92" s="49"/>
       <c r="F92" s="50"/>
     </row>
-    <row r="93" ht="17.55" spans="1:6">
+    <row r="93" ht="15.15" spans="1:6">
       <c r="A93" s="34" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B93" s="35" t="s">
         <v>27</v>
@@ -9667,9 +9760,9 @@
       <c r="E93" s="49"/>
       <c r="F93" s="50"/>
     </row>
-    <row r="94" ht="17.55" spans="1:6">
+    <row r="94" ht="15.15" spans="1:6">
       <c r="A94" s="34" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B94" s="35" t="s">
         <v>38</v>
@@ -9683,9 +9776,9 @@
       <c r="E94" s="49"/>
       <c r="F94" s="50"/>
     </row>
-    <row r="95" ht="17.55" spans="1:6">
+    <row r="95" ht="15.15" spans="1:6">
       <c r="A95" s="34" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="B95" s="35" t="s">
         <v>23</v>
@@ -9699,9 +9792,9 @@
       <c r="E95" s="49"/>
       <c r="F95" s="50"/>
     </row>
-    <row r="96" ht="17.55" spans="1:6">
+    <row r="96" ht="15.15" spans="1:6">
       <c r="A96" s="34" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B96" s="35" t="s">
         <v>36</v>
@@ -9715,9 +9808,9 @@
       <c r="E96" s="49"/>
       <c r="F96" s="50"/>
     </row>
-    <row r="97" ht="17.55" spans="1:6">
+    <row r="97" ht="15.15" spans="1:6">
       <c r="A97" s="39" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B97" s="40" t="s">
         <v>59</v>
@@ -9836,7 +9929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -9844,13 +9937,13 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="38.7980769230769" customWidth="1"/>
-    <col min="3" max="3" width="39.2403846153846" customWidth="1"/>
+    <col min="2" max="2" width="38.7967479674797" customWidth="1"/>
+    <col min="3" max="3" width="39.2439024390244" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:6">
+    <row r="1" ht="15.15" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9878,7 +9971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F184"/>
   <sheetViews>
@@ -9886,15 +9979,15 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88617886178862" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.88461538461539" style="1"/>
-    <col min="2" max="2" width="23.8557692307692" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7980769230769" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88461538461539" style="1"/>
+    <col min="1" max="1" width="8.88617886178862" style="1"/>
+    <col min="2" max="2" width="23.8536585365854" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7967479674797" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88617886178862" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:6">
+    <row r="1" ht="15.15" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9914,12 +10007,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:6">
+    <row r="2" ht="15.15" spans="1:6">
       <c r="A2" s="4">
         <v>440</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="C2" s="6">
         <v>0.285</v>
@@ -9930,12 +10023,12 @@
       <c r="E2" s="21"/>
       <c r="F2" s="22"/>
     </row>
-    <row r="3" ht="17.55" spans="1:6">
+    <row r="3" ht="15.15" spans="1:6">
       <c r="A3" s="8">
         <v>726</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="C3" s="10">
         <v>0.414</v>
@@ -9946,12 +10039,12 @@
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" ht="17.55" spans="1:6">
+    <row r="4" ht="15.15" spans="1:6">
       <c r="A4" s="8">
         <v>393</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C4" s="10">
         <v>0.361</v>
@@ -9962,12 +10055,12 @@
       <c r="E4" s="23"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" ht="17.55" spans="1:6">
+    <row r="5" ht="15.15" spans="1:6">
       <c r="A5" s="8">
         <v>460</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="C5" s="10">
         <v>0.332</v>
@@ -9978,7 +10071,7 @@
       <c r="E5" s="23"/>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" ht="17.55" spans="1:6">
+    <row r="6" ht="15.15" spans="1:6">
       <c r="A6" s="8">
         <v>135</v>
       </c>
@@ -9994,12 +10087,12 @@
       <c r="E6" s="23"/>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" ht="17.55" spans="1:6">
+    <row r="7" ht="15.15" spans="1:6">
       <c r="A7" s="8">
         <v>1014</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C7" s="10">
         <v>0.395</v>
@@ -10010,7 +10103,7 @@
       <c r="E7" s="23"/>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" ht="17.55" spans="1:6">
+    <row r="8" ht="15.15" spans="1:6">
       <c r="A8" s="8">
         <v>695</v>
       </c>
@@ -10026,7 +10119,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" ht="17.55" spans="1:6">
+    <row r="9" ht="15.15" spans="1:6">
       <c r="A9" s="8">
         <v>42</v>
       </c>
@@ -10042,12 +10135,12 @@
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" ht="17.55" spans="1:6">
+    <row r="10" ht="15.15" spans="1:6">
       <c r="A10" s="8">
         <v>994</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="C10" s="10">
         <v>0.453</v>
@@ -10058,7 +10151,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
     </row>
-    <row r="11" ht="17.55" spans="1:6">
+    <row r="11" ht="15.15" spans="1:6">
       <c r="A11" s="8">
         <v>93</v>
       </c>
@@ -10074,12 +10167,12 @@
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" ht="17.55" spans="1:6">
+    <row r="12" ht="15.15" spans="1:6">
       <c r="A12" s="8">
         <v>1052</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C12" s="10">
         <v>0.43</v>
@@ -10090,12 +10183,12 @@
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" ht="17.55" spans="1:6">
+    <row r="13" ht="15.15" spans="1:6">
       <c r="A13" s="8">
         <v>493</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C13" s="10">
         <v>0.196</v>
@@ -10106,12 +10199,12 @@
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" ht="17.55" spans="1:6">
+    <row r="14" ht="15.15" spans="1:6">
       <c r="A14" s="8">
         <v>199</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C14" s="10">
         <v>0.603</v>
@@ -10122,12 +10215,12 @@
       <c r="E14" s="23"/>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" ht="17.55" spans="1:6">
+    <row r="15" ht="15.15" spans="1:6">
       <c r="A15" s="8">
         <v>329</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C15" s="10">
         <v>0.391</v>
@@ -10138,7 +10231,7 @@
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" ht="17.55" spans="1:6">
+    <row r="16" ht="15.15" spans="1:6">
       <c r="A16" s="8">
         <v>146</v>
       </c>
@@ -10154,12 +10247,12 @@
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" ht="17.55" spans="1:6">
+    <row r="17" ht="15.15" spans="1:6">
       <c r="A17" s="8">
         <v>1004</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="C17" s="10">
         <v>0.438</v>
@@ -10170,12 +10263,12 @@
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" ht="17.55" spans="1:6">
+    <row r="18" ht="15.15" spans="1:6">
       <c r="A18" s="8">
         <v>673</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C18" s="10">
         <v>0.305</v>
@@ -10186,7 +10279,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" ht="17.55" spans="1:6">
+    <row r="19" ht="15.15" spans="1:6">
       <c r="A19" s="14">
         <v>25</v>
       </c>
@@ -10202,12 +10295,12 @@
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
     </row>
-    <row r="20" ht="17.55" spans="1:6">
+    <row r="20" ht="15.15" spans="1:6">
       <c r="A20" s="8">
         <v>386</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C20" s="10">
         <v>0.608</v>
@@ -10218,12 +10311,12 @@
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" ht="17.55" spans="1:6">
+    <row r="21" ht="15.15" spans="1:6">
       <c r="A21" s="8">
         <v>398</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C21" s="10">
         <v>0.55</v>
@@ -10234,12 +10327,12 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" ht="17.55" spans="1:6">
+    <row r="22" ht="15.15" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C22" s="6">
         <v>0.181</v>
@@ -10250,12 +10343,12 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" ht="17.55" spans="1:6">
+    <row r="23" ht="15.15" spans="1:6">
       <c r="A23" s="8">
         <v>382</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C23" s="10">
         <v>0.539</v>
@@ -10266,12 +10359,12 @@
       <c r="E23" s="23"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" ht="17.55" spans="1:6">
+    <row r="24" ht="15.15" spans="1:6">
       <c r="A24" s="8">
         <v>662</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="C24" s="10">
         <v>0.324</v>
@@ -10282,12 +10375,12 @@
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" ht="17.55" spans="1:6">
+    <row r="25" ht="15.15" spans="1:6">
       <c r="A25" s="8">
         <v>698</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C25" s="10">
         <v>0.395</v>
@@ -10298,12 +10391,12 @@
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" ht="17.55" spans="1:6">
+    <row r="26" ht="15.15" spans="1:6">
       <c r="A26" s="8">
         <v>547</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C26" s="10">
         <v>0.512</v>
@@ -10314,12 +10407,12 @@
       <c r="E26" s="23"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" ht="17.55" spans="1:6">
+    <row r="27" ht="15.15" spans="1:6">
       <c r="A27" s="8">
         <v>71</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C27" s="10">
         <v>0.368</v>
@@ -10330,7 +10423,7 @@
       <c r="E27" s="23"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" ht="17.55" spans="1:6">
+    <row r="28" ht="15.15" spans="1:6">
       <c r="A28" s="8">
         <v>200</v>
       </c>
@@ -10346,7 +10439,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" ht="17.55" spans="1:6">
+    <row r="29" ht="15.15" spans="1:6">
       <c r="A29" s="8">
         <v>45</v>
       </c>
@@ -10362,12 +10455,12 @@
       <c r="E29" s="23"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" ht="17.55" spans="1:6">
+    <row r="30" ht="15.15" spans="1:6">
       <c r="A30" s="14">
         <v>456</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C30" s="16">
         <v>0.238</v>
@@ -10378,12 +10471,12 @@
       <c r="E30" s="25"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" ht="17.55" spans="1:6">
+    <row r="31" ht="15.15" spans="1:6">
       <c r="A31" s="8">
         <v>862</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="C31" s="10">
         <v>0.11</v>
@@ -10394,12 +10487,12 @@
       <c r="E31" s="23"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" ht="17.55" spans="1:6">
+    <row r="32" ht="15.15" spans="1:6">
       <c r="A32" s="8">
         <v>518</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C32" s="10">
         <v>0.428</v>
@@ -10410,7 +10503,7 @@
       <c r="E32" s="23"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" ht="17.55" spans="1:6">
+    <row r="33" ht="15.15" spans="1:6">
       <c r="A33" s="8">
         <v>56</v>
       </c>
@@ -10426,12 +10519,12 @@
       <c r="E33" s="23"/>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" ht="17.55" spans="1:6">
+    <row r="34" ht="15.15" spans="1:6">
       <c r="A34" s="8">
         <v>214</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="C34" s="10">
         <v>0.313</v>
@@ -10442,12 +10535,12 @@
       <c r="E34" s="23"/>
       <c r="F34" s="24"/>
     </row>
-    <row r="35" ht="17.55" spans="1:6">
+    <row r="35" ht="15.15" spans="1:6">
       <c r="A35" s="8">
         <v>754</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C35" s="10">
         <v>0.379</v>
@@ -10458,12 +10551,12 @@
       <c r="E35" s="23"/>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" ht="17.55" spans="1:6">
+    <row r="36" ht="15.15" spans="1:6">
       <c r="A36" s="8">
         <v>445</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C36" s="10">
         <v>0.497</v>
@@ -10474,12 +10567,12 @@
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
     </row>
-    <row r="37" ht="17.55" spans="1:6">
+    <row r="37" ht="15.15" spans="1:6">
       <c r="A37" s="8">
         <v>223</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="C37" s="10">
         <v>0.412</v>
@@ -10490,7 +10583,7 @@
       <c r="E37" s="23"/>
       <c r="F37" s="24"/>
     </row>
-    <row r="38" ht="17.55" spans="1:6">
+    <row r="38" ht="15.15" spans="1:6">
       <c r="A38" s="8">
         <v>72</v>
       </c>
@@ -10506,7 +10599,7 @@
       <c r="E38" s="23"/>
       <c r="F38" s="24"/>
     </row>
-    <row r="39" ht="17.55" spans="1:6">
+    <row r="39" ht="15.15" spans="1:6">
       <c r="A39" s="8">
         <v>543</v>
       </c>
@@ -10522,7 +10615,7 @@
       <c r="E39" s="23"/>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" ht="17.55" spans="1:6">
+    <row r="40" ht="15.15" spans="1:6">
       <c r="A40" s="8">
         <v>3</v>
       </c>
@@ -10538,12 +10631,12 @@
       <c r="E40" s="23"/>
       <c r="F40" s="24"/>
     </row>
-    <row r="41" ht="17.55" spans="1:6">
+    <row r="41" ht="15.15" spans="1:6">
       <c r="A41" s="8">
         <v>44</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="C41" s="10">
         <v>0.244</v>
@@ -10554,12 +10647,12 @@
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
     </row>
-    <row r="42" ht="17.55" spans="1:6">
+    <row r="42" ht="15.15" spans="1:6">
       <c r="A42" s="4">
         <v>297</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="C42" s="6">
         <v>0.403</v>
@@ -10570,12 +10663,12 @@
       <c r="E42" s="21"/>
       <c r="F42" s="22"/>
     </row>
-    <row r="43" ht="17.55" spans="1:6">
+    <row r="43" ht="15.15" spans="1:6">
       <c r="A43" s="8">
         <v>224</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="C43" s="10">
         <v>0.332</v>
@@ -10586,7 +10679,7 @@
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" ht="17.55" spans="1:6">
+    <row r="44" ht="15.15" spans="1:6">
       <c r="A44" s="8">
         <v>33</v>
       </c>
@@ -10602,12 +10695,12 @@
       <c r="E44" s="23"/>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" ht="17.55" spans="1:6">
+    <row r="45" ht="15.15" spans="1:6">
       <c r="A45" s="8">
         <v>260</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C45" s="10">
         <v>0.662</v>
@@ -10618,12 +10711,12 @@
       <c r="E45" s="23"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" ht="17.55" spans="1:6">
+    <row r="46" ht="15.15" spans="1:6">
       <c r="A46" s="8">
         <v>165</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C46" s="10">
         <v>0.322</v>
@@ -10634,7 +10727,7 @@
       <c r="E46" s="23"/>
       <c r="F46" s="24"/>
     </row>
-    <row r="47" ht="17.55" spans="1:6">
+    <row r="47" ht="15.15" spans="1:6">
       <c r="A47" s="8">
         <v>85</v>
       </c>
@@ -10650,7 +10743,7 @@
       <c r="E47" s="23"/>
       <c r="F47" s="24"/>
     </row>
-    <row r="48" ht="17.55" spans="1:6">
+    <row r="48" ht="15.15" spans="1:6">
       <c r="A48" s="8">
         <v>206</v>
       </c>
@@ -10666,12 +10759,12 @@
       <c r="E48" s="23"/>
       <c r="F48" s="24"/>
     </row>
-    <row r="49" ht="17.55" spans="1:6">
+    <row r="49" ht="15.15" spans="1:6">
       <c r="A49" s="8">
         <v>114</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="C49" s="10">
         <v>0.634</v>
@@ -10682,7 +10775,7 @@
       <c r="E49" s="23"/>
       <c r="F49" s="24"/>
     </row>
-    <row r="50" ht="17.55" spans="1:6">
+    <row r="50" ht="15.15" spans="1:6">
       <c r="A50" s="8">
         <v>1</v>
       </c>
@@ -10698,12 +10791,12 @@
       <c r="E50" s="23"/>
       <c r="F50" s="24"/>
     </row>
-    <row r="51" ht="17.55" spans="1:6">
+    <row r="51" ht="15.15" spans="1:6">
       <c r="A51" s="8">
         <v>143</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="C51" s="10">
         <v>0.509</v>
@@ -10714,7 +10807,7 @@
       <c r="E51" s="23"/>
       <c r="F51" s="24"/>
     </row>
-    <row r="52" ht="17.55" spans="1:6">
+    <row r="52" ht="15.15" spans="1:6">
       <c r="A52" s="8">
         <v>2</v>
       </c>
@@ -10730,7 +10823,7 @@
       <c r="E52" s="23"/>
       <c r="F52" s="24"/>
     </row>
-    <row r="53" ht="17.55" spans="1:6">
+    <row r="53" ht="15.15" spans="1:6">
       <c r="A53" s="8">
         <v>322</v>
       </c>
@@ -10746,12 +10839,12 @@
       <c r="E53" s="23"/>
       <c r="F53" s="24"/>
     </row>
-    <row r="54" ht="17.55" spans="1:6">
+    <row r="54" ht="15.15" spans="1:6">
       <c r="A54" s="8">
         <v>400</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="C54" s="10">
         <v>0.326</v>
@@ -10762,7 +10855,7 @@
       <c r="E54" s="23"/>
       <c r="F54" s="24"/>
     </row>
-    <row r="55" ht="17.55" spans="1:6">
+    <row r="55" ht="15.15" spans="1:6">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -10778,7 +10871,7 @@
       <c r="E55" s="23"/>
       <c r="F55" s="24"/>
     </row>
-    <row r="56" ht="17.55" spans="1:6">
+    <row r="56" ht="15.15" spans="1:6">
       <c r="A56" s="8">
         <v>124</v>
       </c>
@@ -10794,12 +10887,12 @@
       <c r="E56" s="23"/>
       <c r="F56" s="24"/>
     </row>
-    <row r="57" ht="17.55" spans="1:6">
+    <row r="57" ht="15.15" spans="1:6">
       <c r="A57" s="8">
         <v>185</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="C57" s="10">
         <v>0.363</v>
@@ -10810,12 +10903,12 @@
       <c r="E57" s="23"/>
       <c r="F57" s="24"/>
     </row>
-    <row r="58" ht="17.55" spans="1:6">
+    <row r="58" ht="15.15" spans="1:6">
       <c r="A58" s="8">
         <v>84</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="C58" s="10">
         <v>0.38</v>
@@ -10826,12 +10919,12 @@
       <c r="E58" s="23"/>
       <c r="F58" s="24"/>
     </row>
-    <row r="59" ht="17.55" spans="1:6">
+    <row r="59" ht="15.15" spans="1:6">
       <c r="A59" s="8">
         <v>714</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="C59" s="10">
         <v>0.534</v>
@@ -10842,7 +10935,7 @@
       <c r="E59" s="23"/>
       <c r="F59" s="24"/>
     </row>
-    <row r="60" ht="17.55" spans="1:6">
+    <row r="60" ht="15.15" spans="1:6">
       <c r="A60" s="14">
         <v>10</v>
       </c>
@@ -10858,7 +10951,7 @@
       <c r="E60" s="25"/>
       <c r="F60" s="26"/>
     </row>
-    <row r="61" ht="17.55" spans="1:6">
+    <row r="61" ht="15.15" spans="1:6">
       <c r="A61" s="8">
         <v>442</v>
       </c>
@@ -10874,7 +10967,7 @@
       <c r="E61" s="27"/>
       <c r="F61" s="27"/>
     </row>
-    <row r="62" ht="17.55" spans="1:6">
+    <row r="62" ht="15.15" spans="1:6">
       <c r="A62" s="4">
         <v>79</v>
       </c>
@@ -10890,12 +10983,12 @@
       <c r="E62" s="21"/>
       <c r="F62" s="22"/>
     </row>
-    <row r="63" ht="17.55" spans="1:6">
+    <row r="63" ht="15.15" spans="1:6">
       <c r="A63" s="8">
         <v>148</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C63" s="10">
         <v>0.614</v>
@@ -10906,7 +10999,7 @@
       <c r="E63" s="23"/>
       <c r="F63" s="24"/>
     </row>
-    <row r="64" ht="17.55" spans="1:6">
+    <row r="64" ht="15.15" spans="1:6">
       <c r="A64" s="8">
         <v>394</v>
       </c>
@@ -10922,12 +11015,12 @@
       <c r="E64" s="23"/>
       <c r="F64" s="24"/>
     </row>
-    <row r="65" ht="17.55" spans="1:6">
+    <row r="65" ht="15.15" spans="1:6">
       <c r="A65" s="8">
         <v>227</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="C65" s="10">
         <v>0.329</v>
@@ -10938,7 +11031,7 @@
       <c r="E65" s="23"/>
       <c r="F65" s="24"/>
     </row>
-    <row r="66" ht="17.55" spans="1:6">
+    <row r="66" ht="15.15" spans="1:6">
       <c r="A66" s="8">
         <v>4</v>
       </c>
@@ -10954,12 +11047,12 @@
       <c r="E66" s="23"/>
       <c r="F66" s="24"/>
     </row>
-    <row r="67" ht="17.55" spans="1:6">
+    <row r="67" ht="15.15" spans="1:6">
       <c r="A67" s="8">
         <v>103</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C67" s="10">
         <v>0.507</v>
@@ -10970,7 +11063,7 @@
       <c r="E67" s="23"/>
       <c r="F67" s="24"/>
     </row>
-    <row r="68" ht="17.55" spans="1:6">
+    <row r="68" ht="15.15" spans="1:6">
       <c r="A68" s="8">
         <v>15</v>
       </c>
@@ -10986,7 +11079,7 @@
       <c r="E68" s="23"/>
       <c r="F68" s="24"/>
     </row>
-    <row r="69" ht="17.55" spans="1:6">
+    <row r="69" ht="15.15" spans="1:6">
       <c r="A69" s="8">
         <v>55</v>
       </c>
@@ -11002,7 +11095,7 @@
       <c r="E69" s="23"/>
       <c r="F69" s="24"/>
     </row>
-    <row r="70" ht="17.55" spans="1:6">
+    <row r="70" ht="15.15" spans="1:6">
       <c r="A70" s="8">
         <v>23</v>
       </c>
@@ -11018,12 +11111,12 @@
       <c r="E70" s="23"/>
       <c r="F70" s="24"/>
     </row>
-    <row r="71" ht="17.55" spans="1:6">
+    <row r="71" ht="15.15" spans="1:6">
       <c r="A71" s="8">
         <v>133</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="C71" s="10">
         <v>0.361</v>
@@ -11034,7 +11127,7 @@
       <c r="E71" s="23"/>
       <c r="F71" s="24"/>
     </row>
-    <row r="72" ht="17.55" spans="1:6">
+    <row r="72" ht="15.15" spans="1:6">
       <c r="A72" s="8">
         <v>121</v>
       </c>
@@ -11050,12 +11143,12 @@
       <c r="E72" s="23"/>
       <c r="F72" s="24"/>
     </row>
-    <row r="73" ht="17.55" spans="1:6">
+    <row r="73" ht="15.15" spans="1:6">
       <c r="A73" s="8">
         <v>208</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="C73" s="10">
         <v>0.6</v>
@@ -11066,12 +11159,12 @@
       <c r="E73" s="23"/>
       <c r="F73" s="24"/>
     </row>
-    <row r="74" ht="17.55" spans="1:6">
+    <row r="74" ht="15.15" spans="1:6">
       <c r="A74" s="8">
         <v>188</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="C74" s="10">
         <v>0.282</v>
@@ -11082,7 +11175,7 @@
       <c r="E74" s="23"/>
       <c r="F74" s="24"/>
     </row>
-    <row r="75" ht="17.55" spans="1:6">
+    <row r="75" ht="15.15" spans="1:6">
       <c r="A75" s="8">
         <v>11</v>
       </c>
@@ -11098,12 +11191,12 @@
       <c r="E75" s="23"/>
       <c r="F75" s="24"/>
     </row>
-    <row r="76" ht="17.55" spans="1:6">
+    <row r="76" ht="15.15" spans="1:6">
       <c r="A76" s="8">
         <v>82</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C76" s="10">
         <v>0.427</v>
@@ -11114,7 +11207,7 @@
       <c r="E76" s="23"/>
       <c r="F76" s="24"/>
     </row>
-    <row r="77" ht="17.55" spans="1:6">
+    <row r="77" ht="15.15" spans="1:6">
       <c r="A77" s="8">
         <v>215</v>
       </c>
@@ -11130,12 +11223,12 @@
       <c r="E77" s="23"/>
       <c r="F77" s="24"/>
     </row>
-    <row r="78" ht="17.55" spans="1:6">
+    <row r="78" ht="15.15" spans="1:6">
       <c r="A78" s="8">
         <v>605</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C78" s="10">
         <v>0.293</v>
@@ -11146,12 +11239,12 @@
       <c r="E78" s="23"/>
       <c r="F78" s="24"/>
     </row>
-    <row r="79" ht="17.55" spans="1:6">
+    <row r="79" ht="15.15" spans="1:6">
       <c r="A79" s="14">
         <v>703</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="C79" s="16">
         <v>0.394</v>
@@ -11162,7 +11255,7 @@
       <c r="E79" s="25"/>
       <c r="F79" s="26"/>
     </row>
-    <row r="80" ht="17.55" spans="1:6">
+    <row r="80" ht="15.15" spans="1:6">
       <c r="A80" s="8">
         <v>41</v>
       </c>
@@ -11178,12 +11271,12 @@
       <c r="E80" s="23"/>
       <c r="F80" s="24"/>
     </row>
-    <row r="81" ht="17.55" spans="1:6">
+    <row r="81" ht="15.15" spans="1:6">
       <c r="A81" s="8">
         <v>328</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="C81" s="10">
         <v>0.58</v>
@@ -11194,12 +11287,12 @@
       <c r="E81" s="27"/>
       <c r="F81" s="27"/>
     </row>
-    <row r="82" ht="17.55" spans="1:6">
+    <row r="82" ht="15.15" spans="1:6">
       <c r="A82" s="4">
         <v>195</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="C82" s="6">
         <v>0.407</v>
@@ -11210,12 +11303,12 @@
       <c r="E82" s="21"/>
       <c r="F82" s="22"/>
     </row>
-    <row r="83" ht="17.55" spans="1:6">
+    <row r="83" ht="15.15" spans="1:6">
       <c r="A83" s="8">
         <v>572</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="C83" s="10">
         <v>0.416</v>
@@ -11226,7 +11319,7 @@
       <c r="E83" s="23"/>
       <c r="F83" s="24"/>
     </row>
-    <row r="84" ht="17.55" spans="1:6">
+    <row r="84" ht="15.15" spans="1:6">
       <c r="A84" s="8">
         <v>21</v>
       </c>
@@ -11242,7 +11335,7 @@
       <c r="E84" s="23"/>
       <c r="F84" s="24"/>
     </row>
-    <row r="85" ht="17.55" spans="1:6">
+    <row r="85" ht="15.15" spans="1:6">
       <c r="A85" s="8">
         <v>102</v>
       </c>
@@ -11258,12 +11351,12 @@
       <c r="E85" s="23"/>
       <c r="F85" s="24"/>
     </row>
-    <row r="86" ht="17.55" spans="1:6">
+    <row r="86" ht="15.15" spans="1:6">
       <c r="A86" s="8">
         <v>95</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="C86" s="10">
         <v>0.581</v>
@@ -11274,7 +11367,7 @@
       <c r="E86" s="23"/>
       <c r="F86" s="24"/>
     </row>
-    <row r="87" ht="17.55" spans="1:6">
+    <row r="87" ht="15.15" spans="1:6">
       <c r="A87" s="8">
         <v>46</v>
       </c>
@@ -11290,7 +11383,7 @@
       <c r="E87" s="23"/>
       <c r="F87" s="24"/>
     </row>
-    <row r="88" ht="17.55" spans="1:6">
+    <row r="88" ht="15.15" spans="1:6">
       <c r="A88" s="8">
         <v>32</v>
       </c>
@@ -11306,12 +11399,12 @@
       <c r="E88" s="23"/>
       <c r="F88" s="24"/>
     </row>
-    <row r="89" ht="17.55" spans="1:6">
+    <row r="89" ht="15.15" spans="1:6">
       <c r="A89" s="8">
         <v>236</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="C89" s="10">
         <v>0.563</v>
@@ -11322,7 +11415,7 @@
       <c r="E89" s="23"/>
       <c r="F89" s="24"/>
     </row>
-    <row r="90" ht="17.55" spans="1:6">
+    <row r="90" ht="15.15" spans="1:6">
       <c r="A90" s="8">
         <v>51</v>
       </c>
@@ -11338,7 +11431,7 @@
       <c r="E90" s="23"/>
       <c r="F90" s="24"/>
     </row>
-    <row r="91" ht="17.55" spans="1:6">
+    <row r="91" ht="15.15" spans="1:6">
       <c r="A91" s="14">
         <v>98</v>
       </c>
@@ -11354,7 +11447,7 @@
       <c r="E91" s="25"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" ht="17.55" spans="1:6">
+    <row r="92" ht="15.15" spans="1:6">
       <c r="A92" s="8">
         <v>54</v>
       </c>
@@ -11370,12 +11463,12 @@
       <c r="E92" s="23"/>
       <c r="F92" s="24"/>
     </row>
-    <row r="93" ht="17.55" spans="1:6">
+    <row r="93" ht="15.15" spans="1:6">
       <c r="A93" s="8">
         <v>47</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C93" s="10">
         <v>0.533</v>
@@ -11386,7 +11479,7 @@
       <c r="E93" s="23"/>
       <c r="F93" s="24"/>
     </row>
-    <row r="94" ht="17.55" spans="1:6">
+    <row r="94" ht="15.15" spans="1:6">
       <c r="A94" s="8">
         <v>139</v>
       </c>
@@ -11402,12 +11495,12 @@
       <c r="E94" s="23"/>
       <c r="F94" s="24"/>
     </row>
-    <row r="95" ht="17.55" spans="1:6">
+    <row r="95" ht="15.15" spans="1:6">
       <c r="A95" s="8">
         <v>596</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="C95" s="10">
         <v>0.37</v>
@@ -11418,12 +11511,12 @@
       <c r="E95" s="23"/>
       <c r="F95" s="24"/>
     </row>
-    <row r="96" ht="17.55" spans="1:6">
+    <row r="96" ht="15.15" spans="1:6">
       <c r="A96" s="8">
         <v>112</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="C96" s="10">
         <v>0.474</v>
@@ -11434,12 +11527,12 @@
       <c r="E96" s="23"/>
       <c r="F96" s="24"/>
     </row>
-    <row r="97" ht="17.55" spans="1:6">
+    <row r="97" ht="15.15" spans="1:6">
       <c r="A97" s="8">
         <v>105</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
       <c r="C97" s="10">
         <v>0.601</v>
@@ -11450,12 +11543,12 @@
       <c r="E97" s="23"/>
       <c r="F97" s="24"/>
     </row>
-    <row r="98" ht="17.55" spans="1:6">
+    <row r="98" ht="15.15" spans="1:6">
       <c r="A98" s="8">
         <v>557</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="C98" s="10">
         <v>0.667</v>
@@ -11466,12 +11559,12 @@
       <c r="E98" s="23"/>
       <c r="F98" s="24"/>
     </row>
-    <row r="99" ht="17.55" spans="1:6">
+    <row r="99" ht="15.15" spans="1:6">
       <c r="A99" s="8">
         <v>30</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="C99" s="10">
         <v>0.274</v>
@@ -11482,7 +11575,7 @@
       <c r="E99" s="23"/>
       <c r="F99" s="24"/>
     </row>
-    <row r="100" ht="17.55" spans="1:6">
+    <row r="100" ht="15.15" spans="1:6">
       <c r="A100" s="8">
         <v>5</v>
       </c>
@@ -11498,12 +11591,12 @@
       <c r="E100" s="23"/>
       <c r="F100" s="24"/>
     </row>
-    <row r="101" ht="17.55" spans="1:6">
+    <row r="101" ht="15.15" spans="1:6">
       <c r="A101" s="8">
         <v>109</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C101" s="10">
         <v>0.672</v>
@@ -11514,7 +11607,7 @@
       <c r="E101" s="27"/>
       <c r="F101" s="27"/>
     </row>
-    <row r="102" ht="17.55" spans="1:6">
+    <row r="102" ht="15.15" spans="1:6">
       <c r="A102" s="8">
         <v>176</v>
       </c>
@@ -11530,12 +11623,12 @@
       <c r="E102" s="23"/>
       <c r="F102" s="24"/>
     </row>
-    <row r="103" ht="17.55" spans="1:6">
+    <row r="103" ht="15.15" spans="1:6">
       <c r="A103" s="8">
         <v>108</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="C103" s="10">
         <v>0.655</v>
@@ -11546,12 +11639,12 @@
       <c r="E103" s="23"/>
       <c r="F103" s="24"/>
     </row>
-    <row r="104" ht="17.55" spans="1:6">
+    <row r="104" ht="15.15" spans="1:6">
       <c r="A104" s="8">
         <v>129</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="C104" s="10">
         <v>0.583</v>
@@ -11562,12 +11655,12 @@
       <c r="E104" s="23"/>
       <c r="F104" s="24"/>
     </row>
-    <row r="105" ht="17.55" spans="1:6">
+    <row r="105" ht="15.15" spans="1:6">
       <c r="A105" s="8">
         <v>94</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C105" s="10">
         <v>0.67</v>
@@ -11578,12 +11671,12 @@
       <c r="E105" s="23"/>
       <c r="F105" s="24"/>
     </row>
-    <row r="106" ht="17.55" spans="1:6">
+    <row r="106" ht="15.15" spans="1:6">
       <c r="A106" s="8">
         <v>134</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="C106" s="10">
         <v>0.479</v>
@@ -11594,12 +11687,12 @@
       <c r="E106" s="23"/>
       <c r="F106" s="24"/>
     </row>
-    <row r="107" ht="17.55" spans="1:6">
+    <row r="107" ht="15.15" spans="1:6">
       <c r="A107" s="8">
         <v>34</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="C107" s="10">
         <v>0.372</v>
@@ -11610,7 +11703,7 @@
       <c r="E107" s="23"/>
       <c r="F107" s="24"/>
     </row>
-    <row r="108" ht="17.55" spans="1:6">
+    <row r="108" ht="15.15" spans="1:6">
       <c r="A108" s="8">
         <v>39</v>
       </c>
@@ -11626,12 +11719,12 @@
       <c r="E108" s="23"/>
       <c r="F108" s="24"/>
     </row>
-    <row r="109" ht="17.55" spans="1:6">
+    <row r="109" ht="15.15" spans="1:6">
       <c r="A109" s="8">
         <v>168</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C109" s="10">
         <v>0.34</v>
@@ -11642,12 +11735,12 @@
       <c r="E109" s="23"/>
       <c r="F109" s="24"/>
     </row>
-    <row r="110" ht="17.55" spans="1:6">
+    <row r="110" ht="15.15" spans="1:6">
       <c r="A110" s="8">
         <v>60</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="C110" s="10">
         <v>0.463</v>
@@ -11658,7 +11751,7 @@
       <c r="E110" s="23"/>
       <c r="F110" s="24"/>
     </row>
-    <row r="111" ht="17.55" spans="1:6">
+    <row r="111" ht="15.15" spans="1:6">
       <c r="A111" s="8">
         <v>31</v>
       </c>
@@ -11674,12 +11767,12 @@
       <c r="E111" s="23"/>
       <c r="F111" s="24"/>
     </row>
-    <row r="112" ht="17.55" spans="1:6">
+    <row r="112" ht="15.15" spans="1:6">
       <c r="A112" s="8">
         <v>209</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C112" s="10">
         <v>0.392</v>
@@ -11690,7 +11783,7 @@
       <c r="E112" s="23"/>
       <c r="F112" s="24"/>
     </row>
-    <row r="113" ht="17.55" spans="1:6">
+    <row r="113" ht="15.15" spans="1:6">
       <c r="A113" s="8">
         <v>234</v>
       </c>
@@ -11706,7 +11799,7 @@
       <c r="E113" s="23"/>
       <c r="F113" s="24"/>
     </row>
-    <row r="114" ht="17.55" spans="1:6">
+    <row r="114" ht="15.15" spans="1:6">
       <c r="A114" s="8">
         <v>455</v>
       </c>
@@ -11722,7 +11815,7 @@
       <c r="E114" s="23"/>
       <c r="F114" s="24"/>
     </row>
-    <row r="115" ht="17.55" spans="1:6">
+    <row r="115" ht="15.15" spans="1:6">
       <c r="A115" s="8">
         <v>415</v>
       </c>
@@ -11738,7 +11831,7 @@
       <c r="E115" s="23"/>
       <c r="F115" s="24"/>
     </row>
-    <row r="116" ht="17.55" spans="1:6">
+    <row r="116" ht="15.15" spans="1:6">
       <c r="A116" s="8">
         <v>101</v>
       </c>
@@ -11754,12 +11847,12 @@
       <c r="E116" s="23"/>
       <c r="F116" s="24"/>
     </row>
-    <row r="117" ht="17.55" spans="1:6">
+    <row r="117" ht="15.15" spans="1:6">
       <c r="A117" s="8">
         <v>213</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="C117" s="10">
         <v>0.341</v>
@@ -11770,7 +11863,7 @@
       <c r="E117" s="23"/>
       <c r="F117" s="24"/>
     </row>
-    <row r="118" ht="17.55" spans="1:6">
+    <row r="118" ht="15.15" spans="1:6">
       <c r="A118" s="8">
         <v>40</v>
       </c>
@@ -11786,7 +11879,7 @@
       <c r="E118" s="23"/>
       <c r="F118" s="24"/>
     </row>
-    <row r="119" ht="17.55" spans="1:6">
+    <row r="119" ht="15.15" spans="1:6">
       <c r="A119" s="8">
         <v>160</v>
       </c>
@@ -11802,7 +11895,7 @@
       <c r="E119" s="23"/>
       <c r="F119" s="24"/>
     </row>
-    <row r="120" ht="17.55" spans="1:6">
+    <row r="120" ht="15.15" spans="1:6">
       <c r="A120" s="14">
         <v>17</v>
       </c>
@@ -11818,12 +11911,12 @@
       <c r="E120" s="25"/>
       <c r="F120" s="26"/>
     </row>
-    <row r="121" ht="17.55" spans="1:6">
+    <row r="121" ht="15.15" spans="1:6">
       <c r="A121" s="8">
         <v>235</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C121" s="10">
         <v>0.604</v>
@@ -11834,7 +11927,7 @@
       <c r="E121" s="27"/>
       <c r="F121" s="27"/>
     </row>
-    <row r="122" ht="17.55" spans="1:6">
+    <row r="122" ht="15.15" spans="1:6">
       <c r="A122" s="8">
         <v>92</v>
       </c>
@@ -11850,12 +11943,12 @@
       <c r="E122" s="23"/>
       <c r="F122" s="24"/>
     </row>
-    <row r="123" ht="17.55" spans="1:6">
+    <row r="123" ht="15.15" spans="1:6">
       <c r="A123" s="8">
         <v>239</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C123" s="10">
         <v>0.421</v>
@@ -11866,12 +11959,12 @@
       <c r="E123" s="23"/>
       <c r="F123" s="24"/>
     </row>
-    <row r="124" ht="17.55" spans="1:6">
+    <row r="124" ht="15.15" spans="1:6">
       <c r="A124" s="8">
         <v>704</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="C124" s="10">
         <v>0.501</v>
@@ -11882,7 +11975,7 @@
       <c r="E124" s="23"/>
       <c r="F124" s="24"/>
     </row>
-    <row r="125" ht="17.55" spans="1:6">
+    <row r="125" ht="15.15" spans="1:6">
       <c r="A125" s="8">
         <v>106</v>
       </c>
@@ -11898,12 +11991,12 @@
       <c r="E125" s="23"/>
       <c r="F125" s="24"/>
     </row>
-    <row r="126" ht="17.55" spans="1:6">
+    <row r="126" ht="15.15" spans="1:6">
       <c r="A126" s="8">
         <v>876</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C126" s="10">
         <v>0.616</v>
@@ -11914,7 +12007,7 @@
       <c r="E126" s="23"/>
       <c r="F126" s="24"/>
     </row>
-    <row r="127" ht="17.55" spans="1:6">
+    <row r="127" ht="15.15" spans="1:6">
       <c r="A127" s="8">
         <v>300</v>
       </c>
@@ -11930,7 +12023,7 @@
       <c r="E127" s="23"/>
       <c r="F127" s="24"/>
     </row>
-    <row r="128" ht="17.55" spans="1:6">
+    <row r="128" ht="15.15" spans="1:6">
       <c r="A128" s="8">
         <v>19</v>
       </c>
@@ -11946,7 +12039,7 @@
       <c r="E128" s="23"/>
       <c r="F128" s="24"/>
     </row>
-    <row r="129" ht="17.55" spans="1:6">
+    <row r="129" ht="15.15" spans="1:6">
       <c r="A129" s="8">
         <v>448</v>
       </c>
@@ -11962,7 +12055,7 @@
       <c r="E129" s="23"/>
       <c r="F129" s="24"/>
     </row>
-    <row r="130" ht="17.55" spans="1:6">
+    <row r="130" ht="15.15" spans="1:6">
       <c r="A130" s="8">
         <v>69</v>
       </c>
@@ -11978,7 +12071,7 @@
       <c r="E130" s="23"/>
       <c r="F130" s="24"/>
     </row>
-    <row r="131" ht="17.55" spans="1:6">
+    <row r="131" ht="15.15" spans="1:6">
       <c r="A131" s="8">
         <v>226</v>
       </c>
@@ -11994,7 +12087,7 @@
       <c r="E131" s="23"/>
       <c r="F131" s="24"/>
     </row>
-    <row r="132" ht="17.55" spans="1:6">
+    <row r="132" ht="15.15" spans="1:6">
       <c r="A132" s="8">
         <v>8</v>
       </c>
@@ -12010,7 +12103,7 @@
       <c r="E132" s="23"/>
       <c r="F132" s="24"/>
     </row>
-    <row r="133" ht="17.55" spans="1:6">
+    <row r="133" ht="15.15" spans="1:6">
       <c r="A133" s="8">
         <v>122</v>
       </c>
@@ -12026,7 +12119,7 @@
       <c r="E133" s="23"/>
       <c r="F133" s="24"/>
     </row>
-    <row r="134" ht="17.55" spans="1:6">
+    <row r="134" ht="15.15" spans="1:6">
       <c r="A134" s="8">
         <v>167</v>
       </c>
@@ -12042,7 +12135,7 @@
       <c r="E134" s="23"/>
       <c r="F134" s="24"/>
     </row>
-    <row r="135" ht="17.55" spans="1:6">
+    <row r="135" ht="15.15" spans="1:6">
       <c r="A135" s="8">
         <v>24</v>
       </c>
@@ -12058,12 +12151,12 @@
       <c r="E135" s="23"/>
       <c r="F135" s="24"/>
     </row>
-    <row r="136" ht="17.55" spans="1:6">
+    <row r="136" ht="15.15" spans="1:6">
       <c r="A136" s="8">
         <v>74</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C136" s="10">
         <v>0.356</v>
@@ -12074,12 +12167,12 @@
       <c r="E136" s="23"/>
       <c r="F136" s="24"/>
     </row>
-    <row r="137" ht="17.55" spans="1:6">
+    <row r="137" ht="15.15" spans="1:6">
       <c r="A137" s="8">
         <v>61</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="C137" s="10">
         <v>0.388</v>
@@ -12090,12 +12183,12 @@
       <c r="E137" s="23"/>
       <c r="F137" s="24"/>
     </row>
-    <row r="138" ht="17.55" spans="1:6">
+    <row r="138" ht="15.15" spans="1:6">
       <c r="A138" s="8">
         <v>225</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="C138" s="10">
         <v>0.595</v>
@@ -12106,7 +12199,7 @@
       <c r="E138" s="23"/>
       <c r="F138" s="24"/>
     </row>
-    <row r="139" ht="17.55" spans="1:6">
+    <row r="139" ht="15.15" spans="1:6">
       <c r="A139" s="8">
         <v>153</v>
       </c>
@@ -12122,7 +12215,7 @@
       <c r="E139" s="23"/>
       <c r="F139" s="24"/>
     </row>
-    <row r="140" ht="17.55" spans="1:6">
+    <row r="140" ht="15.15" spans="1:6">
       <c r="A140" s="14">
         <v>9</v>
       </c>
@@ -12138,7 +12231,7 @@
       <c r="E140" s="25"/>
       <c r="F140" s="26"/>
     </row>
-    <row r="141" ht="17.55" spans="1:6">
+    <row r="141" ht="15.15" spans="1:6">
       <c r="A141" s="8">
         <v>145</v>
       </c>
@@ -12154,12 +12247,12 @@
       <c r="E141" s="27"/>
       <c r="F141" s="27"/>
     </row>
-    <row r="142" ht="17.55" spans="1:6">
+    <row r="142" ht="15.15" spans="1:6">
       <c r="A142" s="8">
         <v>62</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C142" s="10">
         <v>0.551</v>
@@ -12170,12 +12263,12 @@
       <c r="E142" s="23"/>
       <c r="F142" s="24"/>
     </row>
-    <row r="143" ht="17.55" spans="1:6">
+    <row r="143" ht="15.15" spans="1:6">
       <c r="A143" s="8">
         <v>203</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C143" s="10">
         <v>0.42</v>
@@ -12186,12 +12279,12 @@
       <c r="E143" s="23"/>
       <c r="F143" s="24"/>
     </row>
-    <row r="144" ht="17.55" spans="1:6">
+    <row r="144" ht="15.15" spans="1:6">
       <c r="A144" s="8">
         <v>279</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C144" s="10">
         <v>0.507</v>
@@ -12202,12 +12295,12 @@
       <c r="E144" s="23"/>
       <c r="F144" s="24"/>
     </row>
-    <row r="145" ht="17.55" spans="1:6">
+    <row r="145" ht="15.15" spans="1:6">
       <c r="A145" s="8">
         <v>48</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C145" s="10">
         <v>0.63</v>
@@ -12218,7 +12311,7 @@
       <c r="E145" s="23"/>
       <c r="F145" s="24"/>
     </row>
-    <row r="146" ht="17.55" spans="1:6">
+    <row r="146" ht="15.15" spans="1:6">
       <c r="A146" s="8">
         <v>178</v>
       </c>
@@ -12234,12 +12327,12 @@
       <c r="E146" s="23"/>
       <c r="F146" s="24"/>
     </row>
-    <row r="147" ht="17.55" spans="1:6">
+    <row r="147" ht="15.15" spans="1:6">
       <c r="A147" s="8">
         <v>110</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="C147" s="10">
         <v>0.49</v>
@@ -12250,12 +12343,12 @@
       <c r="E147" s="23"/>
       <c r="F147" s="24"/>
     </row>
-    <row r="148" ht="17.55" spans="1:6">
+    <row r="148" ht="15.15" spans="1:6">
       <c r="A148" s="8">
         <v>96</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C148" s="10">
         <v>0.614</v>
@@ -12266,7 +12359,7 @@
       <c r="E148" s="23"/>
       <c r="F148" s="24"/>
     </row>
-    <row r="149" ht="17.55" spans="1:6">
+    <row r="149" ht="15.15" spans="1:6">
       <c r="A149" s="8">
         <v>50</v>
       </c>
@@ -12282,7 +12375,7 @@
       <c r="E149" s="23"/>
       <c r="F149" s="24"/>
     </row>
-    <row r="150" ht="17.55" spans="1:6">
+    <row r="150" ht="15.15" spans="1:6">
       <c r="A150" s="8">
         <v>70</v>
       </c>
@@ -12298,7 +12391,7 @@
       <c r="E150" s="23"/>
       <c r="F150" s="24"/>
     </row>
-    <row r="151" ht="17.55" spans="1:6">
+    <row r="151" ht="15.15" spans="1:6">
       <c r="A151" s="8">
         <v>240</v>
       </c>
@@ -12314,7 +12407,7 @@
       <c r="E151" s="23"/>
       <c r="F151" s="24"/>
     </row>
-    <row r="152" ht="17.55" spans="1:6">
+    <row r="152" ht="15.15" spans="1:6">
       <c r="A152" s="8">
         <v>198</v>
       </c>
@@ -12330,12 +12423,12 @@
       <c r="E152" s="23"/>
       <c r="F152" s="24"/>
     </row>
-    <row r="153" ht="17.55" spans="1:6">
+    <row r="153" ht="15.15" spans="1:6">
       <c r="A153" s="8">
         <v>292</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="C153" s="10">
         <v>0.69</v>
@@ -12346,7 +12439,7 @@
       <c r="E153" s="23"/>
       <c r="F153" s="24"/>
     </row>
-    <row r="154" ht="17.55" spans="1:6">
+    <row r="154" ht="15.15" spans="1:6">
       <c r="A154" s="8">
         <v>88</v>
       </c>
@@ -12362,7 +12455,7 @@
       <c r="E154" s="23"/>
       <c r="F154" s="24"/>
     </row>
-    <row r="155" ht="17.55" spans="1:6">
+    <row r="155" ht="15.15" spans="1:6">
       <c r="A155" s="8">
         <v>141</v>
       </c>
@@ -12378,7 +12471,7 @@
       <c r="E155" s="23"/>
       <c r="F155" s="24"/>
     </row>
-    <row r="156" ht="17.55" spans="1:6">
+    <row r="156" ht="15.15" spans="1:6">
       <c r="A156" s="8">
         <v>177</v>
       </c>
@@ -12394,7 +12487,7 @@
       <c r="E156" s="23"/>
       <c r="F156" s="24"/>
     </row>
-    <row r="157" ht="17.55" spans="1:6">
+    <row r="157" ht="15.15" spans="1:6">
       <c r="A157" s="8">
         <v>287</v>
       </c>
@@ -12410,7 +12503,7 @@
       <c r="E157" s="23"/>
       <c r="F157" s="24"/>
     </row>
-    <row r="158" ht="17.55" spans="1:6">
+    <row r="158" ht="15.15" spans="1:6">
       <c r="A158" s="8">
         <v>107</v>
       </c>
@@ -12426,12 +12519,12 @@
       <c r="E158" s="23"/>
       <c r="F158" s="24"/>
     </row>
-    <row r="159" ht="17.55" spans="1:6">
+    <row r="159" ht="15.15" spans="1:6">
       <c r="A159" s="14">
         <v>189</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C159" s="16">
         <v>0.382</v>
@@ -12442,7 +12535,7 @@
       <c r="E159" s="25"/>
       <c r="F159" s="26"/>
     </row>
-    <row r="160" ht="17.55" spans="1:6">
+    <row r="160" ht="15.15" spans="1:6">
       <c r="A160" s="8">
         <v>16</v>
       </c>
@@ -12458,7 +12551,7 @@
       <c r="E160" s="23"/>
       <c r="F160" s="24"/>
     </row>
-    <row r="161" ht="17.55" spans="1:6">
+    <row r="161" ht="15.15" spans="1:6">
       <c r="A161" s="8">
         <v>38</v>
       </c>
@@ -12474,7 +12567,7 @@
       <c r="E161" s="27"/>
       <c r="F161" s="27"/>
     </row>
-    <row r="162" ht="17.55" spans="1:6">
+    <row r="162" ht="15.15" spans="1:6">
       <c r="A162" s="8">
         <v>104</v>
       </c>
@@ -12490,7 +12583,7 @@
       <c r="E162" s="23"/>
       <c r="F162" s="24"/>
     </row>
-    <row r="163" ht="17.55" spans="1:6">
+    <row r="163" ht="15.15" spans="1:6">
       <c r="A163" s="8">
         <v>7</v>
       </c>
@@ -12506,7 +12599,7 @@
       <c r="E163" s="23"/>
       <c r="F163" s="24"/>
     </row>
-    <row r="164" ht="17.55" spans="1:6">
+    <row r="164" ht="15.15" spans="1:6">
       <c r="A164" s="8">
         <v>22</v>
       </c>
@@ -12522,7 +12615,7 @@
       <c r="E164" s="23"/>
       <c r="F164" s="24"/>
     </row>
-    <row r="165" ht="17.55" spans="1:6">
+    <row r="165" ht="15.15" spans="1:6">
       <c r="A165" s="8">
         <v>83</v>
       </c>
@@ -12538,7 +12631,7 @@
       <c r="E165" s="23"/>
       <c r="F165" s="24"/>
     </row>
-    <row r="166" ht="17.55" spans="1:6">
+    <row r="166" ht="15.15" spans="1:6">
       <c r="A166" s="8">
         <v>75</v>
       </c>
@@ -12554,7 +12647,7 @@
       <c r="E166" s="23"/>
       <c r="F166" s="24"/>
     </row>
-    <row r="167" ht="17.55" spans="1:6">
+    <row r="167" ht="15.15" spans="1:6">
       <c r="A167" s="8">
         <v>20</v>
       </c>
@@ -12570,12 +12663,12 @@
       <c r="E167" s="23"/>
       <c r="F167" s="24"/>
     </row>
-    <row r="168" ht="17.55" spans="1:6">
+    <row r="168" ht="15.15" spans="1:6">
       <c r="A168" s="8">
         <v>771</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="C168" s="10">
         <v>0.801</v>
@@ -12586,7 +12679,7 @@
       <c r="E168" s="23"/>
       <c r="F168" s="24"/>
     </row>
-    <row r="169" ht="17.55" spans="1:6">
+    <row r="169" ht="15.15" spans="1:6">
       <c r="A169" s="8">
         <v>142</v>
       </c>
@@ -12602,7 +12695,7 @@
       <c r="E169" s="23"/>
       <c r="F169" s="24"/>
     </row>
-    <row r="170" ht="17.55" spans="1:6">
+    <row r="170" ht="15.15" spans="1:6">
       <c r="A170" s="8">
         <v>175</v>
       </c>
@@ -12618,12 +12711,12 @@
       <c r="E170" s="23"/>
       <c r="F170" s="24"/>
     </row>
-    <row r="171" ht="17.55" spans="1:6">
+    <row r="171" ht="15.15" spans="1:6">
       <c r="A171" s="8">
         <v>78</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C171" s="10">
         <v>0.742</v>
@@ -12634,7 +12727,7 @@
       <c r="E171" s="23"/>
       <c r="F171" s="24"/>
     </row>
-    <row r="172" ht="17.55" spans="1:6">
+    <row r="172" ht="15.15" spans="1:6">
       <c r="A172" s="8">
         <v>26</v>
       </c>
@@ -12650,7 +12743,7 @@
       <c r="E172" s="23"/>
       <c r="F172" s="24"/>
     </row>
-    <row r="173" ht="17.55" spans="1:6">
+    <row r="173" ht="15.15" spans="1:6">
       <c r="A173" s="8">
         <v>64</v>
       </c>
@@ -12666,7 +12759,7 @@
       <c r="E173" s="23"/>
       <c r="F173" s="24"/>
     </row>
-    <row r="174" ht="17.55" spans="1:6">
+    <row r="174" ht="15.15" spans="1:6">
       <c r="A174" s="8">
         <v>136</v>
       </c>
@@ -12682,7 +12775,7 @@
       <c r="E174" s="23"/>
       <c r="F174" s="24"/>
     </row>
-    <row r="175" ht="17.55" spans="1:6">
+    <row r="175" ht="15.15" spans="1:6">
       <c r="A175" s="8">
         <v>14</v>
       </c>
@@ -12698,12 +12791,12 @@
       <c r="E175" s="23"/>
       <c r="F175" s="24"/>
     </row>
-    <row r="176" ht="17.55" spans="1:6">
+    <row r="176" ht="15.15" spans="1:6">
       <c r="A176" s="8">
         <v>182</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="C176" s="10">
         <v>0.756</v>
@@ -12714,7 +12807,7 @@
       <c r="E176" s="23"/>
       <c r="F176" s="24"/>
     </row>
-    <row r="177" ht="17.55" spans="1:6">
+    <row r="177" ht="15.15" spans="1:6">
       <c r="A177" s="8">
         <v>13</v>
       </c>
@@ -12730,12 +12823,12 @@
       <c r="E177" s="23"/>
       <c r="F177" s="24"/>
     </row>
-    <row r="178" ht="17.55" spans="1:6">
+    <row r="178" ht="15.15" spans="1:6">
       <c r="A178" s="8">
         <v>100</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="C178" s="10">
         <v>0.54</v>
@@ -12746,12 +12839,12 @@
       <c r="E178" s="23"/>
       <c r="F178" s="24"/>
     </row>
-    <row r="179" ht="17.55" spans="1:6">
+    <row r="179" ht="15.15" spans="1:6">
       <c r="A179" s="14">
         <v>35</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C179" s="16">
         <v>0.44</v>
@@ -12762,12 +12855,12 @@
       <c r="E179" s="25"/>
       <c r="F179" s="26"/>
     </row>
-    <row r="180" ht="17.55" spans="1:6">
+    <row r="180" ht="15.15" spans="1:6">
       <c r="A180" s="8">
         <v>155</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="C180" s="10">
         <v>0.494</v>
@@ -12778,7 +12871,7 @@
       <c r="E180" s="23"/>
       <c r="F180" s="24"/>
     </row>
-    <row r="181" ht="17.55" spans="1:6">
+    <row r="181" ht="15.15" spans="1:6">
       <c r="A181" s="8">
         <v>28</v>
       </c>
@@ -12792,12 +12885,12 @@
       <c r="E181" s="27"/>
       <c r="F181" s="27"/>
     </row>
-    <row r="182" ht="17.55" spans="1:6">
+    <row r="182" ht="15.15" spans="1:6">
       <c r="A182" s="8">
         <v>6</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="C182" s="10">
         <v>0.44</v>
@@ -12808,7 +12901,7 @@
       <c r="E182" s="23"/>
       <c r="F182" s="24"/>
     </row>
-    <row r="183" ht="17.55" spans="1:6">
+    <row r="183" ht="15.15" spans="1:6">
       <c r="A183" s="8">
         <v>66</v>
       </c>
@@ -12824,12 +12917,12 @@
       <c r="E183" s="23"/>
       <c r="F183" s="24"/>
     </row>
-    <row r="184" ht="17.55" spans="1:6">
+    <row r="184" ht="15.15" spans="1:6">
       <c r="A184" s="14">
         <v>27</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C184" s="16">
         <v>0.555</v>
